--- a/基于高斯分布的多任务优化/MGDMTO加上相似性判断/MGDMTO_s_CR0.7/MGDMTO显著性分析/CEC/Plot/CEC22_20_temp.xlsx
+++ b/基于高斯分布的多任务优化/MGDMTO加上相似性判断/MGDMTO_s_CR0.7/MGDMTO显著性分析/CEC/Plot/CEC22_20_temp.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="MGDMTO_s_CR0.7" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MFEA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MFEA_AKT" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MFDE" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MTGA" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MKTDE" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="AEMTO" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="RLMFEA" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="EMTO_AI" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="BLKT_DE" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MMLMTO" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MGDMTO_s_CR0.2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MGDMTO_s_CR0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MGDMTO_s_CR0.4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MGDMTO_s_CR0.5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MGDMTO_s_CR0.6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MGDMTO_s_CR0.1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MGDMTO_s_CR0.8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MGDMTO_s_CR0.9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1242,1612 +1240,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>P1-T1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>P1-T2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P2-T1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P2-T2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P3-T1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>P3-T2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P4-T1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>P4-T2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>P5-T1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P5-T2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>P6-T1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>P6-T2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>P7-T1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>P7-T2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>P8-T1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>P8-T2</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>P9-T1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>P9-T2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>P10-T1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>P10-T2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>677.7629322804635</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>677.6168237886957</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1747.841057004492</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1766.36128068768</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>600455473.8061556</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>534839335.2636284</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1307.738544565706</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1307.775993238984</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>11853502.15967368</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>12656159.06969236</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>312933618.4091141</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>434939529.690818</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>44754.62117918635</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>31346.78222246856</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>521.4348363803576</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>521.4404471617921</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>17320.91232445806</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>1623.801265846344</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>10421902.63196691</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>340748141.0760328</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>658.510101729542</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>659.0169397905428</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>744.8528458862039</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>743.6550957029596</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>53883255.95115194</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>53224679.15702769</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>1300.924966231162</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1300.781011606093</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>7688.908222760171</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>6478.92625276643</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>24152869.57234752</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>26098833.92178247</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>4341.637531946921</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>4343.666070068862</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>521.260137182276</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>521.263172107467</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>15326.8622326223</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>1622.962389584427</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>222913.5736069671</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>31998896.80333784</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>641.15088285466</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>641.1652071523836</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>703.6552076423128</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>703.6117599503191</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>12683580.99055854</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>15300066.4052374</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1300.769377013125</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1300.683164084362</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1616.376911387204</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1576.063424843551</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>10088450.944266</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>10484031.76512595</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>3515.443999894125</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>3540.930645305692</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>521.2323106940019</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>521.2327640435041</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>14725.30242448608</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>1622.787235022655</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>103948.99667043</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>13511851.04278712</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>628.8865396998184</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>629.1744103589722</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>701.2290997066333</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>701.2267146073591</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>6206659.557531095</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>7211314.353483124</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1300.714162223811</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1300.639993033302</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1544.689099331264</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1541.854409578029</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>4216127.434148662</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>3570164.298309261</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>3055.562288399747</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>3024.987248316997</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>521.2248166707163</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>521.2218499784182</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>13430.13343018659</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>1622.712068052163</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>64593.23547146298</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>6263343.963860317</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>621.0359749301909</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>621.8707500057997</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>700.9377687075881</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>700.9290353860466</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>4300682.660372993</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>5503498.628883564</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>1300.677349387153</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1300.617445463008</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1538.85392901101</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>1538.096336320978</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>2031670.31490475</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>2124770.14431191</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>2947.247090956278</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>2915.397017698067</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>521.2195989318514</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>521.2108699938755</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>11445.19428366517</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>1622.595570166435</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>42797.63688655551</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>3130766.786786661</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>616.1858686628915</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>616.9140918273486</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>700.5389735687045</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>700.5564602263156</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>3300199.807134875</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>4371533.874730597</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1300.656069291333</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1300.593902124197</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1536.642806262791</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1537.216855710183</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>1497406.649057025</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>1566085.508723284</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>2925.975793220764</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>2895.524568625377</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>521.2092921219294</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>521.2085490813074</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>10461.58968395795</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>1622.316260762624</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>36162.57924645095</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>1957240.069388655</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>612.8829068787376</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>613.571366916774</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>700.235018873646</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>700.2380225034832</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>2688764.596491986</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>3670617.999721581</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>1300.643716160762</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1300.584601039812</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1535.564002104638</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1536.250378178495</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>1306934.13072157</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>1326519.339595609</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>2918.079845365082</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>2884.674580648293</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>521.2046623128779</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>521.203114818483</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>9725.888043283374</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>1622.108738269623</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>30583.17648334646</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>1380125.573651878</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>610.7138297093202</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>611.317614718858</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>700.0874263499397</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>700.091831655175</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>2275046.964335546</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>2969971.618208647</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>1300.623780901556</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1300.574592579171</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1534.608492875842</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1535.314909793967</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1091292.631384343</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>1154457.363346619</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>2914.034929501365</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>2880.037801752244</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>521.2028146181466</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>521.2014761052266</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>9078.102696702468</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>1621.926627133284</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>27396.97747493807</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>1127663.731333532</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>609.198992018568</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>609.7798224642037</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>700.0307316849515</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>700.029223479977</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>2047687.253388954</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>2505566.675166696</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>1300.601841152712</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1300.559304210874</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1533.886416713973</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1534.576581213998</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>953213.669418024</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>1002333.289868557</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>2911.457419277819</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>2877.706005978125</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>521.1986583538823</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>521.1984517415873</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>8377.147123014069</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>1621.62842353624</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>25715.27133377043</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>1016980.069436507</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>608.1720045768456</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>608.7678690522742</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>700.0104051563269</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>700.0095161770982</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>1853217.89892129</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>2228377.068873051</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>1300.589116039094</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1300.548688791089</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1533.06057583545</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>1532.990971028442</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>854399.3318397958</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>861760.6201044335</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>2909.855856379363</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>2876.322792273159</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>521.194822775249</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>521.1955261953507</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>7816.216711143488</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>1621.437316194903</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>24423.95309265919</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>931863.916595886</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>607.4417522475484</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>608.0020156663238</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>700.0035906793212</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>700.0034936129703</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1636689.008320028</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>2011462.061410069</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>1300.586977797842</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1300.536173194261</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1532.303850259411</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1531.729205807808</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>785361.7671536679</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>778952.1007642337</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>2908.988136227547</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>2875.343223582227</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>521.1912768505758</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>521.1949275585266</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>7654.743985482795</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>1621.217994058738</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>22987.58390312401</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>860227.4380905168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>P1-T1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>P1-T2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P2-T1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P2-T2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P3-T1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>P3-T2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P4-T1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>P4-T2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>P5-T1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P5-T2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>P6-T1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>P6-T2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>P7-T1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>P7-T2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>P8-T1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>P8-T2</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>P9-T1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>P9-T2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>P10-T1</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>P10-T2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>678.4721750942656</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>678.3815290187988</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1751.443340911429</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1748.209734730901</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>702237422.3862869</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>587516614.3875757</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1307.809412630404</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1307.94442306756</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>11163623.90805033</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>13801307.40230124</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>377918274.2539418</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>443340038.1636652</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>61278.28394101661</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>44956.30482316539</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>521.4496510505044</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>521.4388006579758</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>17523.92185525814</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>1623.763573991651</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>12249935.0667737</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>408641470.4199791</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>619.7042336758658</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>620.3425863693243</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>702.6455681393757</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>703.062091334045</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>23435320.39609735</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>23704181.919639</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>1300.742476709039</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>1300.656751853639</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>1578.967423186474</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>1565.757828209473</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>11581332.60761824</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>10222437.00025533</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>4246.587817958562</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>4276.164621990015</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>521.2445203499116</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>521.2435577573468</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>15246.8262480501</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>1622.878846953718</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>72748.98873045672</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>12033688.32070114</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>609.0252540800298</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>609.3867506928514</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>701.0248697576283</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>701.0420920836101</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>7994778.719794032</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>9485378.706017731</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1300.633000670713</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1300.548844178861</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1537.353099482435</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1537.173505355028</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>4455371.123016402</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>3890536.438731566</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>3900.624057955351</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>3901.603674354543</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>521.1708831115327</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>521.1694887005362</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>14439.05717313335</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>1622.476566247554</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>37402.35882575037</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>4701531.846842277</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>604.7674086188376</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>604.9512093013952</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>700.2298313262129</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>700.2717586786796</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>3449901.764260561</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>4018327.192942331</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1300.55583064274</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1300.503157858011</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1533.942842076689</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1534.303123758209</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>2134959.35086281</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>1830795.413090475</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>3393.691058602868</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>3241.332939845199</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>520.8432082308815</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>520.856837657395</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>11875.83608996119</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>1621.627717118187</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>22201.17464561913</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>2328928.513993653</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>602.834855467665</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>602.9970005696861</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>700.0225878660483</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>700.0283385441035</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1892233.210534191</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>2172252.946673432</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>1300.489242397667</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>1300.436968101078</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1530.174647168382</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>1530.119101894565</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>1110278.012209291</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>920024.5689120631</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>3037.589129135051</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>2877.214844229731</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>520.404899990453</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>520.4480675380253</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>8615.052270821685</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>1621.187858122316</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>15920.74317153433</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>1210283.486949439</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>601.9914790132303</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>602.1788962444815</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>700.0023987041158</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>700.0046072094793</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1047173.968092848</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1237444.322312961</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1300.434841291858</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>1300.391692613598</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1523.952605644644</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>1522.450920057118</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>627995.7581594181</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>521115.8883315477</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>2888.27224509761</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>2784.933417846705</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>520.2225534508793</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>520.2623223693957</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>7787.673572583078</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>1620.956179575649</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>11837.78745060367</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>748499.404219872</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>601.6207904724756</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>601.8233100690873</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>700.0002681660389</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>700.0020820499866</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>743605.4803545272</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>828737.9299455377</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>1300.415683741633</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1300.37293847385</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1515.933563630217</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1514.140122298199</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>452951.1195025258</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>372675.7734213723</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>2855.469073637388</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>2763.814210659245</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>520.1630046061053</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>520.1792663509211</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>7573.504210287542</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>1620.885948418796</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>9236.66730385677</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>514187.4780057755</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>601.4448153894272</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>601.6440871263943</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>700.0000330177232</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>700.0017666072254</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>494588.0660926569</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>607924.6705642298</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>1300.411781303919</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1300.366129207599</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1511.624298450521</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1510.898393984302</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>344560.6330710804</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>243042.5666091507</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>2850.467357554215</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>2757.921004175916</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>520.1315058038372</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>520.1542231905017</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>7517.331414694678</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>1620.861007035066</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>8037.435327309085</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>390372.5340366844</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>601.3623813065053</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>601.5610013376661</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>700.0000037514275</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>700.0017301119381</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>351778.3720709306</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>456927.3570530835</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>1300.408133477155</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1300.362517029726</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1509.685195474254</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1509.278868343725</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>273401.2566350599</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>200317.041286462</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>2847.706385163704</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>2754.40883051289</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>520.1237957663249</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>520.1454940310111</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>7492.739015015764</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>1620.84800509676</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>6701.766997068707</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>331102.9154410045</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>601.3227074427692</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>601.5187094327318</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>700.0000003821198</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>700.0017258421192</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>279020.1784971691</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>382554.7719967493</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>1300.407964406074</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1300.360940633615</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1508.759215481984</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>1508.477175002022</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>227810.4171423326</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>160125.6837234868</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>2845.598708391473</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>2751.972330456171</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>520.1157360924727</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>520.1394946490022</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>7487.401257685989</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>1620.840805444799</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>5873.786681998797</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>290515.1046883386</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>601.3039769269351</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>601.4986245148528</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>700.0000000381065</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>700.0017253908267</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>226543.172958782</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>317514.7566985268</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>1300.406081503641</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1300.358472753368</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1507.645578233884</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1508.036293983575</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>199968.2345236969</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>135887.4809113142</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>2844.012146843495</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>2749.618161989659</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>520.111142522058</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>520.1370849115033</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>7484.599481044954</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>1620.835500015379</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>5262.831037463504</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>257041.4558245687</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2966,684 +1358,684 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>677.5771641595551</v>
+        <v>679.7113463825168</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>677.9691634760695</v>
+        <v>678.5949609210619</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1751.576023881673</v>
+        <v>1813.371337727964</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1752.514784283939</v>
+        <v>1813.910448725957</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>545893762.0846856</v>
+        <v>770737846.4406582</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>537063835.8435537</v>
+        <v>827855459.0178969</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1307.526311079343</v>
+        <v>1307.750576543617</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1307.822628924435</v>
+        <v>1308.044331332235</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>9940574.233779818</v>
+        <v>14800852.77937848</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>12232041.60353758</v>
+        <v>16290360.41843794</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>408554994.9970117</v>
+        <v>464802387.753266</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>410577440.9669627</v>
+        <v>584238299.9054894</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>35108.44599090403</v>
+        <v>99254.7562058249</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>39871.00840808756</v>
+        <v>54014.25013708874</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>521.4354719718408</v>
+        <v>521.4587418214253</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>521.4224394237071</v>
+        <v>521.4628463725727</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>17416.53408242298</v>
+        <v>17928.85907429938</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1623.771655071893</v>
+        <v>1623.870793138665</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12886927.8620964</v>
+        <v>30543307.3149215</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>443574272.9778288</v>
+        <v>559898534.7088819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>652.6005260167716</v>
+        <v>618.1703429163646</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>653.5671928563974</v>
+        <v>617.3736597409239</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>702.01606927118</v>
+        <v>701.1703395790936</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>702.0539975036835</v>
+        <v>701.3449383471691</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10309104.54814016</v>
+        <v>8052568.788835433</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>12099107.15124758</v>
+        <v>7482885.377386358</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1300.573554924281</v>
+        <v>1300.595497418118</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1300.452896017646</v>
+        <v>1300.555494875098</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1671.168239671098</v>
+        <v>1548.777401507669</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1617.371720540528</v>
+        <v>1546.68667670388</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>6672452.640017801</v>
+        <v>4115496.84121778</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>5553804.737439732</v>
+        <v>3696567.708541961</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3339.290163894712</v>
+        <v>3059.557196869035</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3448.332145820243</v>
+        <v>3056.563997265753</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>520.8568018703746</v>
+        <v>521.2539835558665</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>520.8875005687109</v>
+        <v>521.2643099995023</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9260.663705383304</v>
+        <v>15212.74094546878</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1621.928282757498</v>
+        <v>1622.753221432315</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>114690.4744179611</v>
+        <v>70393.91907473677</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>9362756.153917383</v>
+        <v>4385967.453646447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>652.4066185199159</v>
+        <v>616.2022998429178</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>653.4182451814185</v>
+        <v>615.0661326912455</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>701.0586048498363</v>
+        <v>700.8715861897111</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>701.0442506232437</v>
+        <v>701.1145555847653</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6816165.319366139</v>
+        <v>2561180.561493304</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7672157.503259786</v>
+        <v>2675933.123395657</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1300.568138711993</v>
+        <v>1300.536373677261</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1300.452057841006</v>
+        <v>1300.513306269509</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1567.805734907089</v>
+        <v>1531.566053889821</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1561.585602788594</v>
+        <v>1532.153134846228</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>4200580.312067875</v>
+        <v>2779602.450722268</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3467809.882761454</v>
+        <v>1960038.551376586</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3322.180485547968</v>
+        <v>2824.795873562582</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3445.380613177778</v>
+        <v>2886.907592708832</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>520.6585865896192</v>
+        <v>521.2244385925304</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>520.6480349523647</v>
+        <v>521.2449793603489</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8734.635939743735</v>
+        <v>14529.71550916549</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1621.797305682305</v>
+        <v>1622.500274135216</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>76201.52563908306</v>
+        <v>39899.38990611982</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>6035977.066403682</v>
+        <v>3212580.513804571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>652.3991431522778</v>
+        <v>616.1531513710615</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>653.3650759204957</v>
+        <v>615.0149682205162</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>700.8716241241018</v>
+        <v>700.8587031387492</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>700.8246951856468</v>
+        <v>701.1060788467454</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>5083363.276829626</v>
+        <v>2282419.601724874</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5823085.127464568</v>
+        <v>2358364.517259875</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1300.565152679573</v>
+        <v>1300.521364934784</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1300.451858458677</v>
+        <v>1300.489135160608</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1565.173157352225</v>
+        <v>1525.087364164408</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1559.053309520188</v>
+        <v>1525.496953960428</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>3080186.222662673</v>
+        <v>2643430.34301773</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2560437.005175039</v>
+        <v>1843598.385624572</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3319.550472525524</v>
+        <v>2789.919758004795</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3444.513856700938</v>
+        <v>2886.804654352661</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>520.5363023279899</v>
+        <v>521.2097311164509</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>520.5158764353616</v>
+        <v>521.2243501697326</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8664.872492712113</v>
+        <v>13624.97153000378</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1621.709607937593</v>
+        <v>1622.345403824067</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>62703.47777285233</v>
+        <v>30190.22057478015</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>4702427.789906262</v>
+        <v>3094094.89814637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>652.14518558065</v>
+        <v>616.1519816951756</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>653.350850044952</v>
+        <v>615.0140124460875</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>700.7024976448703</v>
+        <v>700.8568829659733</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>700.7000655618597</v>
+        <v>701.1048512833004</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4201141.869556797</v>
+        <v>2196699.949661938</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4722740.37045624</v>
+        <v>2249235.545992215</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1300.56290673696</v>
+        <v>1300.512413134135</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1300.451802240151</v>
+        <v>1300.469409469909</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1563.935446688903</v>
+        <v>1524.463334279858</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1557.333444979527</v>
+        <v>1524.624193965227</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>2542315.034960416</v>
+        <v>2567291.536837577</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2076011.198952467</v>
+        <v>1791529.776180847</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3302.462038458172</v>
+        <v>2789.482398586069</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3444.242907640863</v>
+        <v>2886.804000895184</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>520.4535393477321</v>
+        <v>521.2028847542301</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>520.4168641907224</v>
+        <v>521.2168216281752</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8644.17476885502</v>
+        <v>12955.35183042964</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1621.670247668845</v>
+        <v>1622.192406391988</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>55001.55658116154</v>
+        <v>24838.75627779351</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>4052482.17217503</v>
+        <v>3031554.90846315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>652.0966616738331</v>
+        <v>616.1519679841554</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>653.3372394437457</v>
+        <v>615.0140004879896</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>700.629634356368</v>
+        <v>700.8563089761444</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>700.5883767699504</v>
+        <v>701.1044856445743</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3648718.390937897</v>
+        <v>2129981.290569716</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3958041.601681459</v>
+        <v>2173458.499614728</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1300.562286604138</v>
+        <v>1300.490828487868</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1300.451723772469</v>
+        <v>1300.464275939495</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1563.142852033898</v>
+        <v>1524.34944858824</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1556.244835187073</v>
+        <v>1524.488938753316</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>2231660.303945529</v>
+        <v>2505437.173942114</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1761001.472583514</v>
+        <v>1756058.248908947</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3301.164928052206</v>
+        <v>2789.475387237858</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3443.586541915162</v>
+        <v>2886.803989492183</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>520.3813559513579</v>
+        <v>521.1967986275714</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>520.3511986532471</v>
+        <v>521.2058389416518</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8632.281597321367</v>
+        <v>12528.70904464435</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1621.652760578312</v>
+        <v>1622.060588041213</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>49113.36056392071</v>
+        <v>20764.60516923325</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>3589426.820305246</v>
+        <v>2984661.449488488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>652.0604681302242</v>
+        <v>616.151967369718</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>653.3170120382366</v>
+        <v>615.0139996220537</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>700.5704559773533</v>
+        <v>700.8561112289389</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>700.5227393386217</v>
+        <v>701.1043581293046</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3234291.407612617</v>
+        <v>2080661.883628213</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3455474.882247036</v>
+        <v>2118095.410749817</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1300.562266378679</v>
+        <v>1300.477243418214</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1300.450542387593</v>
+        <v>1300.450934937882</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1562.555142044577</v>
+        <v>1524.289100771758</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1555.585343771625</v>
+        <v>1524.425681121302</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1970354.256480038</v>
+        <v>2456982.677439671</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1526503.952205189</v>
+        <v>1727232.57343989</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3300.609097336323</v>
+        <v>2789.475297642317</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3443.027474706836</v>
+        <v>2886.803989398022</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>520.326804388272</v>
+        <v>521.1944934775112</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>520.2940645475521</v>
+        <v>521.2001708604423</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8624.811889515398</v>
+        <v>12148.33056639911</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1621.637334601099</v>
+        <v>1621.952263979326</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>45251.1563228866</v>
+        <v>19117.41835386925</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>3237351.231291443</v>
+        <v>2947029.064961452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>652.0500389203953</v>
+        <v>616.151967182949</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>653.3059954650206</v>
+        <v>615.0139992626439</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>700.5163023674461</v>
+        <v>700.8560430993741</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>700.4742563648346</v>
+        <v>701.1043141539907</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2944009.58748979</v>
+        <v>2043691.595937705</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3101989.2164991</v>
+        <v>2070194.643889688</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1300.562252922312</v>
+        <v>1300.473110613453</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1300.447217108063</v>
+        <v>1300.44246697407</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1562.032758742186</v>
+        <v>1524.251735917245</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1555.214577652406</v>
+        <v>1524.385473258521</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1795567.802177998</v>
+        <v>2411208.956578315</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1340916.103694121</v>
+        <v>1701593.055739875</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3299.241633985012</v>
+        <v>2789.475296585384</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3442.763416649195</v>
+        <v>2886.80398939491</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>520.3031886707827</v>
+        <v>521.1923382244632</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>520.251696316962</v>
+        <v>521.19504856549</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8619.398069635585</v>
+        <v>11732.23419738395</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1621.624786893601</v>
+        <v>1621.862466731845</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>42716.76943913945</v>
+        <v>17698.81271209828</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2945452.698394932</v>
+        <v>2913647.131907699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>652.0467359471136</v>
+        <v>616.1519670602404</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>653.3009115938156</v>
+        <v>615.0139990291989</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>700.4729083620532</v>
+        <v>700.8560228970662</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>700.4300511047221</v>
+        <v>701.1042897525072</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2708699.876216772</v>
+        <v>2014108.677803627</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2813969.701612191</v>
+        <v>2030402.129762357</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1300.562239653806</v>
+        <v>1300.463682681229</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1300.447152306222</v>
+        <v>1300.441920225176</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1561.609951761606</v>
+        <v>1524.227213921608</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1554.73373420652</v>
+        <v>1524.358912364947</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1651224.628869311</v>
+        <v>2368122.819952118</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1220298.533161557</v>
+        <v>1679118.33195961</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3298.986387003844</v>
+        <v>2789.475296579185</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3442.692859878712</v>
+        <v>2886.803989394888</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>520.267637215373</v>
+        <v>521.1885048138848</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>520.2105022751274</v>
+        <v>521.188422702855</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8616.141239945864</v>
+        <v>11708.21553825513</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1621.617297727339</v>
+        <v>1621.728558310717</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>40583.45113959136</v>
+        <v>16844.16455883974</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2754013.53505515</v>
+        <v>2883266.845206329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>652.0452437024085</v>
+        <v>616.1519669893263</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>653.2969629010727</v>
+        <v>615.0139988488625</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>700.4218137665349</v>
+        <v>700.8560135259107</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>700.402801099803</v>
+        <v>701.1042767986808</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2514553.452326573</v>
+        <v>1985503.391848806</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2623372.533988998</v>
+        <v>1997603.43704098</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1300.56221225794</v>
+        <v>1300.46100431154</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1300.447151649804</v>
+        <v>1300.433704943996</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1561.192868380736</v>
+        <v>1524.208650320813</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1554.347242012488</v>
+        <v>1524.338525028692</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1531033.1742784</v>
+        <v>2337105.651822361</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1129809.728826681</v>
+        <v>1660371.784674471</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3298.293885269781</v>
+        <v>2789.475296579124</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3442.608629239208</v>
+        <v>2886.803989394888</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>520.2438644523316</v>
+        <v>521.1830736095291</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>520.1831823902854</v>
+        <v>521.1822769391981</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8614.601974133535</v>
+        <v>11631.89793669514</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1621.609221871968</v>
+        <v>1621.636537184633</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>38386.1693460743</v>
+        <v>16345.50712246529</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2588464.294053368</v>
+        <v>2859366.378554185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>652.0421504399607</v>
+        <v>616.1519669414188</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>653.294804994463</v>
+        <v>615.0139987209972</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>700.3915418469634</v>
+        <v>700.8560076717694</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>700.3606740491645</v>
+        <v>701.1042680840881</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2345856.913140866</v>
+        <v>1959937.022232337</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2455653.567993402</v>
+        <v>1962628.398494894</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1300.562204220173</v>
+        <v>1300.457601836762</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1300.447150215055</v>
+        <v>1300.43282262324</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1560.947475456253</v>
+        <v>1524.194397232021</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1553.962892310941</v>
+        <v>1524.32385016389</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1432473.345191664</v>
+        <v>2313055.177027409</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1059973.370065681</v>
+        <v>1646612.491561032</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3298.178785053667</v>
+        <v>2789.475296579124</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3442.535957652548</v>
+        <v>2886.803989394888</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>520.2128702722437</v>
+        <v>521.1804777827958</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>520.1596260021699</v>
+        <v>521.1785191636092</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>8608.845460861192</v>
+        <v>11568.46463489037</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1621.603240385228</v>
+        <v>1621.522431124224</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>36299.33235890348</v>
+        <v>16063.41279115142</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2390766.182609668</v>
+        <v>2838639.860652267</v>
       </c>
     </row>
   </sheetData>
@@ -3769,684 +2161,684 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>678.1941949359624</v>
+        <v>679.5548787411994</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>677.9046429401375</v>
+        <v>679.0653507548923</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1766.293282730457</v>
+        <v>1781.310077122665</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1762.363041184348</v>
+        <v>1782.332973461826</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>621489826.3023459</v>
+        <v>629445075.9843261</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>598150243.3934439</v>
+        <v>733595525.3347962</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1307.520791293813</v>
+        <v>1307.815473551282</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1307.770276036293</v>
+        <v>1308.023909386872</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>12409521.96375163</v>
+        <v>13231072.7207127</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>12602138.33957695</v>
+        <v>14286270.22026726</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>349984601.7291422</v>
+        <v>439393165.0961888</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>351250166.4903928</v>
+        <v>604016078.0559942</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>55620.79814026128</v>
+        <v>124115.3367301837</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>30664.95615357877</v>
+        <v>64660.83192294806</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>521.4376281450011</v>
+        <v>521.4738859424101</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>521.4301609338196</v>
+        <v>521.4773547025795</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>17486.50328055072</v>
+        <v>17839.08807510503</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1623.787174655835</v>
+        <v>1623.991211150715</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12216439.18117463</v>
+        <v>20703622.07908653</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>440608720.7396671</v>
+        <v>510479802.4269038</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>634.9281158631443</v>
+        <v>612.316708663012</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>635.1941357942104</v>
+        <v>612.4972832165009</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>707.3630466126699</v>
+        <v>700.9646742673897</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>707.5271168630255</v>
+        <v>700.9572021268913</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3195959.040693267</v>
+        <v>21740925.72708059</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3488074.121216028</v>
+        <v>20577655.93217201</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1300.656298962104</v>
+        <v>1300.676821589856</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1300.519993149012</v>
+        <v>1300.631986701512</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1836.865272682124</v>
+        <v>1536.519458858445</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1822.50215906409</v>
+        <v>1538.433341449087</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>4947218.21741868</v>
+        <v>13255846.76745664</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4799893.844932162</v>
+        <v>12793107.24980748</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3283.469848938628</v>
+        <v>3937.737324733699</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3371.196690249756</v>
+        <v>3920.362412451824</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>520.9068983455052</v>
+        <v>521.2584370655036</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>520.9178503124565</v>
+        <v>521.2551944199857</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>9644.719931005386</v>
+        <v>15289.29949009153</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1621.846386011744</v>
+        <v>1622.755714451163</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>87564.59475185514</v>
+        <v>97276.88307084278</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>4764980.14148596</v>
+        <v>17555639.33591577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>634.7113452335203</v>
+        <v>604.8686415208663</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>635.0929570441183</v>
+        <v>605.4859759546495</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>701.8835876347113</v>
+        <v>700.1037881589388</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>701.8850536901294</v>
+        <v>700.0479053750208</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2333183.355529034</v>
+        <v>11000364.5547431</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2744672.652773905</v>
+        <v>11544679.94564911</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1300.64095147292</v>
+        <v>1300.575473630578</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1300.486943965988</v>
+        <v>1300.581603850553</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1587.424352736508</v>
+        <v>1532.585793739751</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1587.621535428166</v>
+        <v>1534.340476630463</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>3546288.195716471</v>
+        <v>4256511.757474476</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3053013.835151556</v>
+        <v>4454354.740194754</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3273.180707939926</v>
+        <v>3224.414724189623</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3357.887032398757</v>
+        <v>3224.776517538164</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>520.6948757165375</v>
+        <v>521.2384250324426</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>520.7147814608098</v>
+        <v>521.2383784014422</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8734.31431621346</v>
+        <v>14978.05987032909</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1621.739167820429</v>
+        <v>1622.597295839449</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>63103.77645422087</v>
+        <v>54694.06866510178</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>3148380.57533727</v>
+        <v>6950086.297844305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>634.683798451956</v>
+        <v>604.1867485712307</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>634.8321797790361</v>
+        <v>604.8383598917297</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>701.2166789993192</v>
+        <v>700.091718309024</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>701.2124685785166</v>
+        <v>700.035451055975</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1966746.647961801</v>
+        <v>5245093.728828779</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2248462.091385186</v>
+        <v>5871729.653612897</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1300.64041769276</v>
+        <v>1300.541684548982</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1300.479677574037</v>
+        <v>1300.53718389279</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1583.294652264882</v>
+        <v>1530.243685666117</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1583.108545409073</v>
+        <v>1531.735970627593</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>2877177.600047877</v>
+        <v>1971145.473824068</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2432746.755421447</v>
+        <v>1647238.320618981</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3272.062403114222</v>
+        <v>2752.347089607656</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3351.07580295767</v>
+        <v>2826.32440219093</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>520.5653171576654</v>
+        <v>521.2307392640238</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>520.5364212578875</v>
+        <v>521.2271263301997</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8493.190563328117</v>
+        <v>14853.4201331412</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1621.649715271235</v>
+        <v>1622.477835672575</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>55256.96678923537</v>
+        <v>43901.89384695223</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2619213.231690042</v>
+        <v>2956192.601056854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>634.6705819204366</v>
+        <v>604.1211874930722</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>634.7020580759258</v>
+        <v>604.7718732775481</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>701.073536539101</v>
+        <v>700.0908518026649</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>701.06899659332</v>
+        <v>700.035001355436</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1721260.172229655</v>
+        <v>3054473.409763016</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1965051.951087971</v>
+        <v>2278265.931263589</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1300.63559748516</v>
+        <v>1300.526073984041</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1300.479322939475</v>
+        <v>1300.52623983943</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1581.883844547131</v>
+        <v>1526.257718546233</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1581.770694136028</v>
+        <v>1531.041106997046</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>2471079.990210935</v>
+        <v>1100278.38543857</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2075188.874443196</v>
+        <v>958530.2403282506</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3271.458365378332</v>
+        <v>2545.927306959145</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3349.103056408018</v>
+        <v>2682.229886966356</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>520.4712441291407</v>
+        <v>521.2213452465751</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>520.4453182643662</v>
+        <v>521.2167568354402</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8397.18155165741</v>
+        <v>14703.7912219378</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1621.616317696244</v>
+        <v>1622.38623058229</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>49180.21796421792</v>
+        <v>36769.97994467964</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>2318148.85025632</v>
+        <v>1573205.884728334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>634.6200210345396</v>
+        <v>604.1144363763738</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>634.6468568755547</v>
+        <v>604.7654539050777</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>701.0117109332076</v>
+        <v>700.0907379986681</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>701.0052524417827</v>
+        <v>700.0349614944314</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1521258.955892403</v>
+        <v>2067877.681816352</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1764133.359421242</v>
+        <v>997914.7648711938</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1300.635304707481</v>
+        <v>1300.50909279055</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1300.47689138935</v>
+        <v>1300.521997945432</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1581.215446974339</v>
+        <v>1523.43588929659</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1580.787735977719</v>
+        <v>1528.928636930837</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>2202586.01113621</v>
+        <v>893952.2108155376</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1836393.162924242</v>
+        <v>801867.436895746</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3271.08432946325</v>
+        <v>2514.901894334042</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3348.230170251526</v>
+        <v>2630.245096919432</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>520.4039569372725</v>
+        <v>521.2160331929131</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>520.3668943165935</v>
+        <v>521.2122224330989</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8358.065248799041</v>
+        <v>14602.39840306323</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1621.592740054734</v>
+        <v>1622.283312631699</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>45484.05825243922</v>
+        <v>31495.93164820493</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2116901.969564923</v>
+        <v>1149612.336282403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>634.4662382515791</v>
+        <v>604.1137504512577</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>634.6381469809404</v>
+        <v>604.7648075511429</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>700.8987035066449</v>
+        <v>700.090726663326</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>700.9008765432507</v>
+        <v>700.0349534709972</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1366624.122420753</v>
+        <v>817822.2183260742</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1619117.204208632</v>
+        <v>751104.9769928884</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1300.635303200027</v>
+        <v>1300.489519782146</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1300.476891117385</v>
+        <v>1300.513621645081</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1580.702618349695</v>
+        <v>1518.760324026015</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1580.263676468869</v>
+        <v>1527.275030321119</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1994306.904167067</v>
+        <v>814325.7509139198</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1648774.556958587</v>
+        <v>722256.3517052394</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3270.754092578997</v>
+        <v>2514.105607879033</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3347.644412383831</v>
+        <v>2556.790000853636</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>520.3475648339048</v>
+        <v>521.209375096438</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>520.3215758189101</v>
+        <v>521.2006243380075</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8333.812922509902</v>
+        <v>14344.17749102841</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1621.57245153514</v>
+        <v>1622.268046786638</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>42617.22537384422</v>
+        <v>28013.05299893241</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1966239.477584316</v>
+        <v>988968.4535640408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>634.4011550240707</v>
+        <v>604.1137090143126</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>634.6163831385782</v>
+        <v>604.7647677725522</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>700.7923645797929</v>
+        <v>700.0907252188425</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>700.7932972457348</v>
+        <v>700.0349523730007</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1254354.731874497</v>
+        <v>572903.2383610962</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1474914.689471269</v>
+        <v>649372.0140524561</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1300.633913930782</v>
+        <v>1300.47411800058</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1300.473883652447</v>
+        <v>1300.506017921139</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1580.267080542767</v>
+        <v>1517.848676743887</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1579.648788123129</v>
+        <v>1525.150061200962</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1825269.205778499</v>
+        <v>763633.1986267293</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1484973.368082907</v>
+        <v>663367.9357538272</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3270.530679480835</v>
+        <v>2514.061441206984</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3347.322355205026</v>
+        <v>2555.122056548608</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>520.3011649016182</v>
+        <v>521.2040749448495</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>520.2643371859048</v>
+        <v>521.1970236034396</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8322.149207053206</v>
+        <v>14214.44068587147</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1621.557365002673</v>
+        <v>1622.174715209944</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>40605.75922042799</v>
+        <v>25443.73813657397</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1848093.47589871</v>
+        <v>895573.5788603312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>634.3628975582027</v>
+        <v>604.1137083286283</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>634.6069166824869</v>
+        <v>604.764767304053</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>700.6858147688437</v>
+        <v>700.0907250923227</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>700.715625966381</v>
+        <v>700.0349521017531</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1164066.268981421</v>
+        <v>493810.4685896401</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1378499.555754922</v>
+        <v>586338.2627307591</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1300.633661466691</v>
+        <v>1300.466343214204</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1300.472162677697</v>
+        <v>1300.487067529851</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1579.867394762045</v>
+        <v>1516.500720580524</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1579.029570932071</v>
+        <v>1523.440474944298</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1714592.611707814</v>
+        <v>720157.7669967397</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1374555.572928447</v>
+        <v>622504.1423606214</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3270.445241627701</v>
+        <v>2514.04973381625</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3347.264965622812</v>
+        <v>2555.038122874469</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>520.2665726536203</v>
+        <v>521.197728487732</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>520.2370516967208</v>
+        <v>521.1932225190286</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8317.370693256908</v>
+        <v>14139.39659194059</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1621.547110341613</v>
+        <v>1622.090974135314</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>38730.87349704727</v>
+        <v>22467.19386624813</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1757411.03860884</v>
+        <v>829058.7648777318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>634.3589496996174</v>
+        <v>604.1137080444167</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>634.5866944071366</v>
+        <v>604.7647670232833</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>700.616336792402</v>
+        <v>700.0907250729889</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>700.6418141085931</v>
+        <v>700.0349520639159</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1083609.150355632</v>
+        <v>449819.2875339294</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1290156.920689658</v>
+        <v>538183.983608897</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1300.633605142455</v>
+        <v>1300.459306436381</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1300.469816571966</v>
+        <v>1300.479176837717</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1579.451870039458</v>
+        <v>1514.635444208409</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1578.620397940128</v>
+        <v>1522.212814028204</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1627259.727697978</v>
+        <v>683957.647962691</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1275251.845270337</v>
+        <v>591689.7596744951</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3270.352418636111</v>
+        <v>2514.045889438631</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3347.183083087913</v>
+        <v>2555.027832971588</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>520.2415478331658</v>
+        <v>521.1967354995551</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>520.2096252936481</v>
+        <v>521.1891398070153</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8309.865610785291</v>
+        <v>14092.8178592333</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1621.537286263117</v>
+        <v>1622.067380259951</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>36621.52672835965</v>
+        <v>20133.91696272514</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1680342.477917057</v>
+        <v>775962.5482683687</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>634.3265962101426</v>
+        <v>604.1137078947593</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>634.5751891798167</v>
+        <v>604.7647667529341</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>700.5599292928277</v>
+        <v>700.0907250703137</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>700.5561622737716</v>
+        <v>700.0349520568992</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1029705.84061209</v>
+        <v>415042.135642976</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1201829.070536913</v>
+        <v>497354.6574375655</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1300.63295312415</v>
+        <v>1300.449216634885</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1300.469816380089</v>
+        <v>1300.473232735388</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1579.112233518551</v>
+        <v>1512.737477764623</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1578.271929334508</v>
+        <v>1521.830030878633</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1546114.49489529</v>
+        <v>655232.5971894063</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1188280.441269815</v>
+        <v>563793.7289920319</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3270.252918985664</v>
+        <v>2514.044201107674</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3347.08153556199</v>
+        <v>2555.024102826399</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>520.2208471552898</v>
+        <v>521.1868449439454</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>520.1784820924797</v>
+        <v>521.1891398070153</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>8305.858711026151</v>
+        <v>14077.75287350372</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1621.52903492621</v>
+        <v>1622.027065010255</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>34893.18967290522</v>
+        <v>17832.33172446947</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1614023.005990589</v>
+        <v>733135.0180439808</v>
       </c>
     </row>
   </sheetData>
@@ -4572,684 +2964,684 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>677.2147792538146</v>
+        <v>679.4179118759814</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>677.9302447198496</v>
+        <v>679.3246565760705</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1792.03836323362</v>
+        <v>1782.879798745074</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1776.528534999944</v>
+        <v>1801.705741169134</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>537680293.7387835</v>
+        <v>755595312.5570763</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>538683622.0624609</v>
+        <v>689959677.9243813</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1307.741892152482</v>
+        <v>1307.90863297229</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1307.774619051665</v>
+        <v>1307.97992023485</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>10979562.72379066</v>
+        <v>15054736.50737</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>9913092.106200397</v>
+        <v>15908480.96435186</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>396782999.9792747</v>
+        <v>440778249.1298186</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>328359804.3019086</v>
+        <v>611238733.312588</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>40353.06499614334</v>
+        <v>108581.4870497705</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>28906.43163955333</v>
+        <v>51576.43409027949</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>521.4231712708015</v>
+        <v>521.4698511484428</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>521.4543125687347</v>
+        <v>521.4523940529748</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>17566.7043235466</v>
+        <v>17871.82868615476</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1623.735193995886</v>
+        <v>1623.999227677803</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>14514107.49686147</v>
+        <v>16437602.59000431</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>338971895.486296</v>
+        <v>574546674.0762675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>644.0715904531254</v>
+        <v>614.7410124616985</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>644.1168525475757</v>
+        <v>615.1590743865722</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>706.3945222490707</v>
+        <v>701.068613112669</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>706.4853387669797</v>
+        <v>701.0781975881508</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>34423165.38414845</v>
+        <v>19119769.9539742</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>32093401.85299893</v>
+        <v>20303639.09965257</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1300.743982549066</v>
+        <v>1300.716141308709</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1300.662599884675</v>
+        <v>1300.659704857894</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1564.25790803629</v>
+        <v>1539.20023508622</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1556.959809222402</v>
+        <v>1538.550993077712</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>11242738.30642761</v>
+        <v>25996937.0411084</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>13046130.55253643</v>
+        <v>26130014.11695533</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4290.215850764233</v>
+        <v>4341.169814233233</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4365.628251235185</v>
+        <v>4301.640600387226</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>521.2430778630502</v>
+        <v>521.2602628761169</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>521.2461645972984</v>
+        <v>521.2494625986684</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>15656.90642131247</v>
+        <v>15358.59572073453</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1622.908819302585</v>
+        <v>1622.877885653211</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>91655.19596580694</v>
+        <v>135654.8636534845</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>14991473.43440329</v>
+        <v>27227913.66829661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>617.5492772020169</v>
+        <v>602.5762455321972</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>617.4437930912175</v>
+        <v>602.8707359886089</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>701.0394936386717</v>
+        <v>700.0311686240558</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>701.0364312627424</v>
+        <v>700.0332426916915</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>18442069.52951425</v>
+        <v>15076463.36567381</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>18546825.5256039</v>
+        <v>13958635.26425207</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1300.675248088653</v>
+        <v>1300.642349585022</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1300.603249656597</v>
+        <v>1300.580851595196</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1537.129247712105</v>
+        <v>1534.299492262356</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1537.445816631535</v>
+        <v>1535.543315665955</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>6660520.082610104</v>
+        <v>15936864.05164941</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>7305278.373809776</v>
+        <v>16247036.3918459</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4130.40460077775</v>
+        <v>3907.199271883915</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4179.455843859019</v>
+        <v>3904.359056231317</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>521.2166778106827</v>
+        <v>521.2386702663501</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>521.2273608058536</v>
+        <v>521.2275229393459</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15294.54071525915</v>
+        <v>15079.10028062939</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1622.758989558961</v>
+        <v>1622.702945044839</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>53074.56763891002</v>
+        <v>75188.97908045078</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>8164422.389773754</v>
+        <v>15468518.57528093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>608.3363100649342</v>
+        <v>600.8913876176761</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>608.2160693575047</v>
+        <v>601.102827054923</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>700.1253811244125</v>
+        <v>700.0003778229121</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>700.1189653154645</v>
+        <v>700.0004361738251</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>11843247.95316337</v>
+        <v>12774938.28039129</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>11109743.10513935</v>
+        <v>11263754.86045026</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1300.639022410167</v>
+        <v>1300.588381555543</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1300.564748427908</v>
+        <v>1300.54959898689</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1534.565122413698</v>
+        <v>1532.422878711448</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1535.360742896961</v>
+        <v>1533.957935931879</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>4756655.040908929</v>
+        <v>10518721.27352993</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4437118.580544304</v>
+        <v>11800840.08441939</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4046.604367222255</v>
+        <v>3657.495024894068</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4057.781274928346</v>
+        <v>3685.520058997285</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>521.2085775764469</v>
+        <v>521.21990342442</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>521.2117137424215</v>
+        <v>521.2096499288405</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>15226.43273695506</v>
+        <v>14897.49790834123</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1622.667219616801</v>
+        <v>1622.586766930701</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>42778.82717587931</v>
+        <v>57105.10333796054</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>5449957.89293223</v>
+        <v>11720971.13375861</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>605.2451463708913</v>
+        <v>600.6598828750585</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>605.1261274311416</v>
+        <v>600.8511778704116</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>700.0066740600789</v>
+        <v>700.0000330146332</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>700.0072742245969</v>
+        <v>700.0001450391351</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8247356.49309218</v>
+        <v>10805242.5857884</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7831256.398770531</v>
+        <v>9013737.95958804</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1300.602574916831</v>
+        <v>1300.570812280865</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1300.546205278078</v>
+        <v>1300.534487710839</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1533.659039357592</v>
+        <v>1531.585933423488</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1534.520325103147</v>
+        <v>1533.123691960055</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>3174163.051960716</v>
+        <v>7770627.693768618</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3294861.752321166</v>
+        <v>7087303.74063377</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3973.624825974752</v>
+        <v>3478.875416929897</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3981.289781424333</v>
+        <v>3451.914724759105</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>521.2049579905822</v>
+        <v>521.2120661309685</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>521.203713366532</v>
+        <v>521.2033389024244</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>15107.00305052688</v>
+        <v>14803.23646894403</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1622.594976764932</v>
+        <v>1622.530733971366</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>35021.66323621998</v>
+        <v>49447.37711554937</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>4058165.742328755</v>
+        <v>7193716.198610338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>604.2882402370614</v>
+        <v>600.628140976102</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>604.1441826245238</v>
+        <v>600.81550428118</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>700.0012902431438</v>
+        <v>700.0000255283869</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>700.0018437829509</v>
+        <v>700.0001386056084</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>6163779.253423452</v>
+        <v>8646662.439993521</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5705427.711070777</v>
+        <v>7485272.969762865</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1300.571658906983</v>
+        <v>1300.545601442878</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1300.537196112515</v>
+        <v>1300.510058972828</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1532.578241988858</v>
+        <v>1531.008722417513</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1533.724798155578</v>
+        <v>1532.691938072737</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>2407761.378435995</v>
+        <v>5426891.422150769</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2326198.353682436</v>
+        <v>4562735.122863988</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3901.895072369784</v>
+        <v>3301.055188550456</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3916.11109316849</v>
+        <v>3205.15665755662</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>521.2012673115767</v>
+        <v>521.20861044208</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>521.1929757627295</v>
+        <v>521.1965712486301</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>15057.56959761318</v>
+        <v>14691.45050411132</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1622.505940598442</v>
+        <v>1622.481970507215</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>29250.17976033951</v>
+        <v>44447.97371102651</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2864347.032759655</v>
+        <v>5213807.389851706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>603.9624342796322</v>
+        <v>600.6235724442751</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>603.8354876332819</v>
+        <v>600.8102585837044</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>700.0010052755819</v>
+        <v>700.0000252820852</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>700.0015771878843</v>
+        <v>700.0001383791229</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4509831.767289457</v>
+        <v>6971023.620483752</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4127515.196687935</v>
+        <v>5995827.490780408</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1300.563526865402</v>
+        <v>1300.537611294013</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1300.532912914593</v>
+        <v>1300.508368968097</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1532.271469062477</v>
+        <v>1530.579812547525</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1533.453999473405</v>
+        <v>1532.548508464273</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1823489.952072847</v>
+        <v>3521295.207493178</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1795356.788354062</v>
+        <v>3181337.475486643</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3828.162458346751</v>
+        <v>3124.448111708619</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3819.638526522216</v>
+        <v>3037.126220969253</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>521.2001499907797</v>
+        <v>521.1954756186266</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>521.1873393244895</v>
+        <v>521.192167100046</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>14957.24847703827</v>
+        <v>14614.82264114894</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1622.49500504247</v>
+        <v>1622.456226667023</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>24374.49124148288</v>
+        <v>39160.19197429596</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2224530.981734181</v>
+        <v>4170781.344505711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>603.8510472195228</v>
+        <v>600.6229226768295</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>603.7224214190635</v>
+        <v>600.809487934124</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>700.0009860269947</v>
+        <v>700.0000252680032</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>700.0015612891417</v>
+        <v>700.0001383712932</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3562793.934823014</v>
+        <v>5710356.65830243</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3076219.697509245</v>
+        <v>4920351.799914625</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1300.550165350405</v>
+        <v>1300.524388529255</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1300.524871790507</v>
+        <v>1300.499746106582</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1531.686081415951</v>
+        <v>1530.084168559856</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1533.230097071308</v>
+        <v>1532.40865039826</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1412041.267851453</v>
+        <v>2684027.55241248</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1347107.588911627</v>
+        <v>2385234.445334854</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3752.361356258904</v>
+        <v>3034.107592294315</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3807.836697652075</v>
+        <v>2898.314143835894</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>521.1979164198345</v>
+        <v>521.1885298986466</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>521.1873393244895</v>
+        <v>521.1889641145979</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14901.47278339065</v>
+        <v>14599.23500800284</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1622.445888539857</v>
+        <v>1622.412147021486</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>20860.18605985196</v>
+        <v>34415.27771124004</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1821951.23012954</v>
+        <v>2750930.489567552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>603.8120466475381</v>
+        <v>600.6228617780797</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>603.6839315772023</v>
+        <v>600.8094046582485</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>700.0009846086543</v>
+        <v>700.0000252655921</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>700.0015602482606</v>
+        <v>700.0001383701497</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2730255.786233118</v>
+        <v>3995910.975827618</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2386377.452554382</v>
+        <v>3726760.876190416</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1300.538422132491</v>
+        <v>1300.514038218323</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1300.518399339736</v>
+        <v>1300.489453197778</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1531.42510072413</v>
+        <v>1529.768763896235</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1532.998890381622</v>
+        <v>1532.263395304354</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1166980.194376571</v>
+        <v>2164573.77293296</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1063709.897178809</v>
+        <v>1823661.29474418</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3727.545474123343</v>
+        <v>2884.625598197946</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3783.83743490598</v>
+        <v>2821.953686630206</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>521.1931928961683</v>
+        <v>521.1781981992621</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>521.1841476143403</v>
+        <v>521.1855458658961</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>14895.27206885887</v>
+        <v>14586.62721901712</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1622.410368225434</v>
+        <v>1622.343834996022</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>17296.83824616354</v>
+        <v>31210.94327657399</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1397171.083646229</v>
+        <v>2080027.929513403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>603.7989330405931</v>
+        <v>600.6228616298728</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>603.6711040092384</v>
+        <v>600.8094041702078</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>700.0009845100897</v>
+        <v>700.0000252654098</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>700.0015601885176</v>
+        <v>700.0001383699416</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2036821.928106404</v>
+        <v>2274914.232553245</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1855262.015575513</v>
+        <v>2434764.66960674</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1300.528709299104</v>
+        <v>1300.501246518941</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1300.513809874816</v>
+        <v>1300.479530588274</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1531.089151105239</v>
+        <v>1529.605195811057</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1532.637159139611</v>
+        <v>1531.839219624153</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>939853.8532041408</v>
+        <v>1738363.864685519</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>786223.127450427</v>
+        <v>1172136.947762221</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3700.211226148793</v>
+        <v>2749.358182119011</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3732.51774818887</v>
+        <v>2736.745304443627</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>521.1906243952105</v>
+        <v>521.1779877179208</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>521.1814070920353</v>
+        <v>521.1818533550395</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>14825.74136855183</v>
+        <v>14515.20673880349</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1622.386770830539</v>
+        <v>1622.329469319794</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>15926.13274527197</v>
+        <v>28738.2778253834</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1162840.731728538</v>
+        <v>1780549.973636297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>603.7946530059747</v>
+        <v>600.6228616297092</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>603.666757136002</v>
+        <v>600.8094041700959</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>700.0009845022968</v>
+        <v>700.0000252653992</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>700.0015601846288</v>
+        <v>700.0001383699253</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1668106.258942762</v>
+        <v>1708809.744992697</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1443933.855924025</v>
+        <v>1225690.913903228</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1300.519927373804</v>
+        <v>1300.492502452101</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1300.509417879845</v>
+        <v>1300.472879598835</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1530.615819922107</v>
+        <v>1529.378143136124</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1532.259443925371</v>
+        <v>1531.694845358988</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>779291.4461122291</v>
+        <v>1412240.619305923</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>651644.368284835</v>
+        <v>874105.3797923062</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3684.77274704561</v>
+        <v>2601.299330129345</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3710.020493231597</v>
+        <v>2666.084987070672</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>521.1850799808406</v>
+        <v>521.1766141644916</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>521.1789182334484</v>
+        <v>521.1771466397295</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>14806.99349494227</v>
+        <v>14503.14328197094</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1622.378094792959</v>
+        <v>1622.298579469487</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>13787.91202749177</v>
+        <v>25484.82396680756</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>984171.2321968657</v>
+        <v>1351032.014458096</v>
       </c>
     </row>
   </sheetData>
@@ -5375,684 +3767,684 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>678.4106007907702</v>
+        <v>679.5764514487578</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>678.0533821644694</v>
+        <v>679.3958278165929</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1748.965480283774</v>
+        <v>1778.641593941407</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1741.63075785261</v>
+        <v>1786.188856887925</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>596320758.1502346</v>
+        <v>654796320.7309775</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>630348010.1457421</v>
+        <v>761848313.0835341</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1307.667866317866</v>
+        <v>1307.943656928217</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1307.7559828925</v>
+        <v>1308.121119468163</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>9125779.666847708</v>
+        <v>15071707.37746444</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>11989446.0036573</v>
+        <v>15318079.6899421</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>359533591.0432984</v>
+        <v>460928265.6216128</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>359258696.1630402</v>
+        <v>615094736.1752989</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>40201.64330410132</v>
+        <v>89938.64963543088</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>48745.94792201887</v>
+        <v>68655.25636157057</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>521.4318014897007</v>
+        <v>521.4698059233272</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>521.4411324340438</v>
+        <v>521.4504985046359</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>17397.81595356132</v>
+        <v>17963.13808129784</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1623.747158862319</v>
+        <v>1623.929945395771</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11932282.18703994</v>
+        <v>25342705.07552285</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>367619831.7525724</v>
+        <v>498461012.757866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>624.6217974988297</v>
+        <v>621.5362721126995</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>623.1687543361641</v>
+        <v>621.6705334577135</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>702.8777155728939</v>
+        <v>701.2986079348037</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>702.8012110303492</v>
+        <v>701.3204254954931</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5498257.036632248</v>
+        <v>20059784.1765138</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5314556.224043271</v>
+        <v>20523373.03133575</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1300.662271520131</v>
+        <v>1300.751103234017</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1300.632792123968</v>
+        <v>1300.697448634079</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1538.820413790138</v>
+        <v>1545.832639488069</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1537.783007824929</v>
+        <v>1541.895758246776</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>3204425.772106364</v>
+        <v>28634210.72192175</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2846125.162060718</v>
+        <v>30491660.25421251</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>2857.989317677854</v>
+        <v>4500.816905380907</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3132.052742309676</v>
+        <v>4595.840380309486</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>521.2643044861981</v>
+        <v>521.2469708718529</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>521.2685005087309</v>
+        <v>521.2669131814774</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>13799.59879115704</v>
+        <v>15318.65104525336</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1622.485973063107</v>
+        <v>1622.860535340313</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>23526.33883678998</v>
+        <v>143616.8791567967</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>4975082.436240927</v>
+        <v>32970489.90720956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>616.030137043054</v>
+        <v>604.3580634845715</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>614.7369455259019</v>
+        <v>604.6903700215091</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>700.9709753906056</v>
+        <v>700.1671993217127</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>700.9565289533707</v>
+        <v>700.1833864178989</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3145587.555751869</v>
+        <v>14185378.3988359</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3227396.223098435</v>
+        <v>14147712.889138</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1300.559864829841</v>
+        <v>1300.678087593421</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1300.52687921399</v>
+        <v>1300.623745611868</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1530.517547484379</v>
+        <v>1535.147049111977</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1529.549753793879</v>
+        <v>1536.68665751</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1952419.397788908</v>
+        <v>18954937.22876273</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1643374.866848875</v>
+        <v>23270618.62391783</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>2685.415154742558</v>
+        <v>4181.564622748295</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2967.924100884153</v>
+        <v>4276.118221787681</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>521.2389987946311</v>
+        <v>521.2302743456672</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>521.2429592064965</v>
+        <v>521.241843148313</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10250.86251602564</v>
+        <v>15082.94484825174</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1621.584782795418</v>
+        <v>1622.737489993871</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>19874.31254702184</v>
+        <v>84979.46769074748</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2869196.930428215</v>
+        <v>25334834.43538167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>613.9195226130498</v>
+        <v>600.9572829930156</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>612.5927720009937</v>
+        <v>601.1905428460947</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>700.3248833564246</v>
+        <v>700.003174359694</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>700.3242785281941</v>
+        <v>700.0034069450001</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2432820.731766107</v>
+        <v>12729497.87343437</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2601958.306244307</v>
+        <v>12370680.7428135</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1300.484970864353</v>
+        <v>1300.643716593155</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1300.454718265769</v>
+        <v>1300.591137967945</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1517.871077491901</v>
+        <v>1533.160596048137</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1517.778999434729</v>
+        <v>1535.261996183486</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1581531.949001501</v>
+        <v>15111361.03540216</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1192141.261723645</v>
+        <v>17587536.40773125</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>2678.129301988408</v>
+        <v>4005.843264002449</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2961.009394772647</v>
+        <v>4074.028062920476</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>521.2269848600196</v>
+        <v>521.220587542318</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>521.2264564174282</v>
+        <v>521.2297786686752</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8042.154825298733</v>
+        <v>14933.96829761692</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1620.389845869307</v>
+        <v>1622.662271215641</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>17754.91194599925</v>
+        <v>59945.24020952451</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2324515.246237283</v>
+        <v>17824633.78314981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>613.3324457870941</v>
+        <v>600.2790799935752</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>612.0071284454804</v>
+        <v>600.4314126745026</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>700.1100822965416</v>
+        <v>700.0000507755848</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>700.1095472033978</v>
+        <v>700.0000646510282</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2037694.472861227</v>
+        <v>10699480.97599011</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2207050.014463807</v>
+        <v>10998435.27160933</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1300.454395783547</v>
+        <v>1300.617011126665</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1300.40887941923</v>
+        <v>1300.573537057816</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1511.809203779493</v>
+        <v>1532.421661339442</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1512.037347572481</v>
+        <v>1534.700051882393</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1365395.86526763</v>
+        <v>12314179.26405543</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>983826.3108425284</v>
+        <v>13329093.68604011</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>2677.349668191674</v>
+        <v>3883.638114546003</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2960.337089536532</v>
+        <v>3984.259349189053</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>521.2202702138088</v>
+        <v>521.216688146344</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>521.2139664148941</v>
+        <v>521.2129181630834</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7388.046646400519</v>
+        <v>14885.10585674266</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1619.432691189297</v>
+        <v>1622.558965117023</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>16074.95415893977</v>
+        <v>51903.38757805416</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1971578.656141505</v>
+        <v>15268556.24262555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>613.1594365360635</v>
+        <v>600.137048392216</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>611.8393140267048</v>
+        <v>600.2858477172734</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>700.0467546328108</v>
+        <v>700.000000945454</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>700.0458644104484</v>
+        <v>700.0000012645652</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1788055.597127776</v>
+        <v>9497394.261245837</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1954223.368142608</v>
+        <v>9675513.265802162</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1300.418154661334</v>
+        <v>1300.590837153701</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1300.376230280105</v>
+        <v>1300.559936993748</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1509.931103554943</v>
+        <v>1531.906523855507</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1510.192128126823</v>
+        <v>1534.120641369203</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1224916.264098162</v>
+        <v>8648138.698202979</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>841214.2173586691</v>
+        <v>10443646.83904936</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>2677.146603949807</v>
+        <v>3775.298431358302</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2960.171442427429</v>
+        <v>3746.880916409214</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>521.2142236190648</v>
+        <v>521.2112619345473</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>521.2091127129016</v>
+        <v>521.2072410158514</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7232.605776819367</v>
+        <v>14749.59113720215</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1619.138191583871</v>
+        <v>1622.487839735157</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>14224.95053613408</v>
+        <v>48275.32078982524</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1749934.374016732</v>
+        <v>12582109.23359952</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>613.1091492722536</v>
+        <v>600.1092400304776</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>611.7906914695169</v>
+        <v>600.2562662584681</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>700.0210957172562</v>
+        <v>700.0000000170081</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>700.0203897390481</v>
+        <v>700.0000000230585</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1605529.669563727</v>
+        <v>8670043.991479961</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1770016.618236148</v>
+        <v>8756450.292255018</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1300.400897793501</v>
+        <v>1300.577436074956</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1300.360138846235</v>
+        <v>1300.550481325397</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1509.281214818614</v>
+        <v>1531.373044521948</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1509.499599277125</v>
+        <v>1533.73025910663</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1116855.628919452</v>
+        <v>7457338.92370533</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>743323.2771311199</v>
+        <v>8389404.925294111</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>2677.076316129435</v>
+        <v>3673.152394230749</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2960.119097338209</v>
+        <v>3718.222191816246</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>521.207666169116</v>
+        <v>521.2089179477567</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>521.2051541735831</v>
+        <v>521.2004921443158</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7178.757517409158</v>
+        <v>14667.83447348163</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1619.020738834974</v>
+        <v>1622.432858809688</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13084.19436028881</v>
+        <v>43595.91516204705</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1578329.119674728</v>
+        <v>10747803.93412654</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>613.0956185086893</v>
+        <v>600.1034999794437</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>611.7768347729224</v>
+        <v>600.2502472138702</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>700.0093343269361</v>
+        <v>700.0000000006743</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>700.0090977944722</v>
+        <v>700.0000000003972</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1453150.684083239</v>
+        <v>7854103.914060888</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1621477.098195403</v>
+        <v>7689718.740352927</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1300.377973971531</v>
+        <v>1300.563573136107</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1300.344853294646</v>
+        <v>1300.534726974582</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1508.890339982081</v>
+        <v>1531.091266098395</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1509.059827807221</v>
+        <v>1533.319362152667</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1024741.729773806</v>
+        <v>6625315.053308181</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>675276.30306637</v>
+        <v>6725141.995268746</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>2677.003987535092</v>
+        <v>3630.85900790596</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2960.088418824408</v>
+        <v>3668.474673930115</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>521.2022348246029</v>
+        <v>521.2007301610245</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>521.201680337511</v>
+        <v>521.1977036308737</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>7164.784117189456</v>
+        <v>14596.55579642808</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1618.984734399065</v>
+        <v>1622.343297916257</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12049.11502489759</v>
+        <v>40644.16457950648</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1434517.54421507</v>
+        <v>9658623.748346956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>613.0917984126688</v>
+        <v>600.1023006439934</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>611.7730162633309</v>
+        <v>600.2490599306085</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>700.0042391227162</v>
+        <v>700.0000000001215</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>700.0041101203235</v>
+        <v>700.0000000000093</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1333037.961530013</v>
+        <v>7053198.120582606</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1499611.748897507</v>
+        <v>6566319.693040471</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1300.358476337198</v>
+        <v>1300.552774284125</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1300.332302757582</v>
+        <v>1300.526732615609</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1508.610328001406</v>
+        <v>1530.74688140958</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1508.744280235549</v>
+        <v>1532.94698655554</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>949614.2101914271</v>
+        <v>5368248.617058312</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>613423.5950663987</v>
+        <v>5874781.073678733</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>2676.979864918243</v>
+        <v>3600.909445628162</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2960.071204648028</v>
+        <v>3607.189089884788</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>521.20170483666</v>
+        <v>521.1972845261466</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>521.1969032107839</v>
+        <v>521.192486265155</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7158.039300586834</v>
+        <v>14545.87540705297</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1618.949575856032</v>
+        <v>1622.32078334023</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11122.7471440928</v>
+        <v>37323.77027749786</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1313015.50525157</v>
+        <v>8065786.206796637</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>613.0907063558461</v>
+        <v>600.1020570601717</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>611.7719544796248</v>
+        <v>600.2488249470691</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>700.0018438427639</v>
+        <v>700.0000000000999</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>700.001747840649</v>
+        <v>700.0000000000013</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1229828.358070289</v>
+        <v>6376493.715908085</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1394786.501853341</v>
+        <v>5337855.628869356</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1300.344027274774</v>
+        <v>1300.544867357587</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1300.325787825833</v>
+        <v>1300.518022179908</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1508.380667473661</v>
+        <v>1530.607489965503</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1508.494619100773</v>
+        <v>1532.653793664345</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>889795.7484897332</v>
+        <v>4333947.165107388</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>570013.0404755332</v>
+        <v>4716419.969653876</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>2676.972681208782</v>
+        <v>3493.202636589826</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2960.065993386408</v>
+        <v>3547.306817700422</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>521.1992450307308</v>
+        <v>521.1954207009223</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>521.1949210930145</v>
+        <v>521.1833450970524</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7150.454248699369</v>
+        <v>14495.9865670858</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1618.886908267614</v>
+        <v>1622.274727193424</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10157.60709753829</v>
+        <v>35428.11543313891</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1216285.198395614</v>
+        <v>7371913.564383422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>613.0904106772767</v>
+        <v>600.1020428549299</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>611.7716492948588</v>
+        <v>600.2488107054062</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>700.0008188508331</v>
+        <v>700.0000000000986</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>700.0008142487752</v>
+        <v>700.000000000001</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1143152.770751519</v>
+        <v>5075558.689068327</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1302841.580033761</v>
+        <v>4576662.121733774</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1300.33398369031</v>
+        <v>1300.533564429558</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1300.314169189318</v>
+        <v>1300.509724492138</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1508.195128099521</v>
+        <v>1530.402192287768</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1508.288154891927</v>
+        <v>1532.345286403415</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>839503.6587005021</v>
+        <v>3404014.545869769</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>532172.6028200492</v>
+        <v>4342589.460122672</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>2676.968680759606</v>
+        <v>3416.44386285466</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2960.060586638456</v>
+        <v>3488.928102072634</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>521.1943482804651</v>
+        <v>521.1920418257802</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>521.1892237391953</v>
+        <v>521.1778226629432</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7148.186172640335</v>
+        <v>14490.40851670968</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1618.873883321425</v>
+        <v>1622.265415812954</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9575.272038810304</v>
+        <v>31193.12959579338</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1127713.611697538</v>
+        <v>5628942.670993277</v>
       </c>
     </row>
   </sheetData>
@@ -6178,684 +4570,684 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>679.2145610690892</v>
+        <v>679.3538369687568</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>679.2371903250431</v>
+        <v>678.5532648235072</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1803.997495424939</v>
+        <v>1807.743941606102</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1790.80030928982</v>
+        <v>1823.87763299735</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>796706621.3116622</v>
+        <v>732399752.2631735</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>742774884.2120764</v>
+        <v>638187263.695557</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1307.921370041058</v>
+        <v>1307.857209055848</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1308.096617026682</v>
+        <v>1308.021346925195</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>14813972.10078127</v>
+        <v>16342084.15594223</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>13869799.15039452</v>
+        <v>13799317.84244424</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>488688214.4959115</v>
+        <v>472317077.8425763</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>609564570.8802894</v>
+        <v>594024946.7626947</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>115930.6466766223</v>
+        <v>64898.5449812245</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>57956.02980980721</v>
+        <v>68319.70718386005</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>521.4791979052792</v>
+        <v>521.4747058354252</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>521.4535982344079</v>
+        <v>521.4606197286821</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>17844.52634597766</v>
+        <v>18053.41501887195</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1623.901087875824</v>
+        <v>1623.926424080185</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>14215494.23459793</v>
+        <v>17634534.195567</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>517727780.095307</v>
+        <v>485448027.4509661</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>620.1045840147982</v>
+        <v>629.0831896995018</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>619.7326837967227</v>
+        <v>628.4376305593712</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>701.1409452481984</v>
+        <v>701.9806903800621</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>701.1317106616704</v>
+        <v>702.0449009454979</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>13270746.74312941</v>
+        <v>21697105.41990425</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>12482945.80140777</v>
+        <v>20636347.13052015</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1300.778826772932</v>
+        <v>1300.800272122687</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1300.683522431856</v>
+        <v>1300.707831416546</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1545.344951063184</v>
+        <v>1568.155527736109</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1542.415916167695</v>
+        <v>1548.978697578495</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>36075818.96824864</v>
+        <v>36867631.22622044</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>37509547.24202061</v>
+        <v>31190407.05004367</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4667.095097278607</v>
+        <v>4635.306702779785</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4781.396934847957</v>
+        <v>4598.895107078484</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>521.2342160678241</v>
+        <v>521.2455731593041</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>521.2410614952582</v>
+        <v>521.2645632566303</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>15490.86207633961</v>
+        <v>15393.34793093186</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1622.910701875147</v>
+        <v>1623.003460461606</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>195055.5751053347</v>
+        <v>193170.1730857759</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>46338761.47748982</v>
+        <v>36855952.42624944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>608.6594769772906</v>
+        <v>608.4286912157876</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>607.9712209268431</v>
+        <v>608.337823263916</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>700.1095678201061</v>
+        <v>700.5161537110074</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>700.1082180840473</v>
+        <v>700.5421110462289</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9129045.943217825</v>
+        <v>14859776.91492985</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8277476.047362971</v>
+        <v>13775033.58215606</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1300.703704047915</v>
+        <v>1300.713140848541</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1300.629717672128</v>
+        <v>1300.648870718662</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1535.628900742684</v>
+        <v>1537.25780161168</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1536.025497636888</v>
+        <v>1537.68608402558</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>26791521.80952292</v>
+        <v>27358680.72907072</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>28571621.39596554</v>
+        <v>21590688.78847577</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4396.400745009585</v>
+        <v>4340.890575449772</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4520.398988258184</v>
+        <v>4313.624069976798</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>521.2143255489999</v>
+        <v>521.2351565618067</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>521.2191898066829</v>
+        <v>521.2412461169883</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15181.20134961608</v>
+        <v>15220.60442696082</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1622.750355558131</v>
+        <v>1622.807531988183</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>94237.31853388647</v>
+        <v>98763.652071604</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>29644218.57639556</v>
+        <v>25886104.66654926</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>606.0112246792311</v>
+        <v>602.3711433615457</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>605.2734519207544</v>
+        <v>602.4569075608157</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>700.00201803602</v>
+        <v>700.0244822038188</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>700.0019545000615</v>
+        <v>700.0267674061064</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7527225.341417822</v>
+        <v>12174626.85425558</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6995331.417614541</v>
+        <v>12176758.21996948</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1300.651947559724</v>
+        <v>1300.681556844564</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1300.599163407165</v>
+        <v>1300.621866415222</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1534.137338379325</v>
+        <v>1535.133708438506</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1534.744155194787</v>
+        <v>1536.224411798958</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>22663567.69277644</v>
+        <v>20737233.83350851</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>24044537.00356966</v>
+        <v>18150418.10571458</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4323.562473956632</v>
+        <v>4230.250697993617</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4375.977238218119</v>
+        <v>4211.492652363249</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>521.2039494354989</v>
+        <v>521.2234234994283</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>521.2022684183926</v>
+        <v>521.2238846606091</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>15108.92881502836</v>
+        <v>15054.39039370569</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1622.691313945191</v>
+        <v>1622.691277818169</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>69582.16695844354</v>
+        <v>73377.77319526848</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>25348010.35941873</v>
+        <v>22083519.0221451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>605.4322684678366</v>
+        <v>600.7569095546407</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>604.684232114271</v>
+        <v>600.8111005272331</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>700.0000350493682</v>
+        <v>700.0008213439074</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>700.0000325229605</v>
+        <v>700.0010375969624</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6210076.419281378</v>
+        <v>10642576.17109229</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6248990.825798021</v>
+        <v>11329276.15248436</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1300.633878477981</v>
+        <v>1300.638797022853</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1300.581238563657</v>
+        <v>1300.597399484322</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1533.228687730421</v>
+        <v>1534.084525568958</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1533.745084465977</v>
+        <v>1535.535512660775</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>19762915.83898879</v>
+        <v>16372738.40410973</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>20320893.93756499</v>
+        <v>14134454.15579715</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4164.153164804479</v>
+        <v>4134.600857615131</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4251.779804437014</v>
+        <v>4088.960390518117</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>521.194213895886</v>
+        <v>521.2101162091874</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>521.1920548374153</v>
+        <v>521.2120918014567</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>14907.17448588444</v>
+        <v>14892.38181050919</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1622.654065898529</v>
+        <v>1622.616883372233</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>58673.0735250327</v>
+        <v>64370.06227040269</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>22692616.71855278</v>
+        <v>19025143.47530779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>605.297882676307</v>
+        <v>600.3086590533939</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>604.5523268739591</v>
+        <v>600.3691607712616</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>700.0000005738453</v>
+        <v>700.0000277926815</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>700.0000005700032</v>
+        <v>700.0000347782589</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5481045.639870973</v>
+        <v>10018229.40322257</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5538651.244873741</v>
+        <v>10429009.90374873</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1300.615835799109</v>
+        <v>1300.615121997706</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1300.566962642217</v>
+        <v>1300.580553266355</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1532.535391952754</v>
+        <v>1533.022541094454</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1533.110153697299</v>
+        <v>1534.905989231864</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>18041953.91558914</v>
+        <v>14993675.66470229</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>19213187.3041643</v>
+        <v>11671877.9558349</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4115.166121341675</v>
+        <v>4037.349725300037</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4165.37054114851</v>
+        <v>3993.862745515127</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>521.187810344791</v>
+        <v>521.206785789567</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>521.1809758660654</v>
+        <v>521.2015596779473</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14819.97630466867</v>
+        <v>14852.9076045014</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1622.605867045338</v>
+        <v>1622.570142501635</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>52581.42955626077</v>
+        <v>56338.18927669586</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>21115853.4643585</v>
+        <v>15702751.24219791</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>605.2690853146614</v>
+        <v>600.1920734148665</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>604.5222050373395</v>
+        <v>600.2510520862641</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>700.0000000099049</v>
+        <v>700.0000009883478</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>700.0000000101002</v>
+        <v>700.0000011058858</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4775897.048624716</v>
+        <v>8989412.032791438</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5243253.937124644</v>
+        <v>9471234.181265006</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1300.601382248308</v>
+        <v>1300.606999963458</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1300.559143421934</v>
+        <v>1300.568230643892</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1531.901516479974</v>
+        <v>1532.553865848831</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1532.866497175985</v>
+        <v>1534.332295908482</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>16653667.52247456</v>
+        <v>13722661.40497776</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>16731952.78190223</v>
+        <v>9979780.277714096</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4041.858224972169</v>
+        <v>3942.578768307121</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4096.393460222308</v>
+        <v>3851.793725293906</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>521.1818274265747</v>
+        <v>521.2019229481388</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>521.1720776154209</v>
+        <v>521.1973122365396</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>14780.53070629088</v>
+        <v>14809.92841416226</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1622.518226092892</v>
+        <v>1622.537024651633</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>50759.23794090849</v>
+        <v>49101.43836160893</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>20125296.67553521</v>
+        <v>14253123.84328098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>605.2614332006885</v>
+        <v>600.159140259583</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>604.5148309919871</v>
+        <v>600.2186184082857</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>700.0000000001735</v>
+        <v>700.0000000382279</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>700.0000000001854</v>
+        <v>700.0000000360219</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>4342624.035181676</v>
+        <v>8347898.310582404</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4736111.589268866</v>
+        <v>8640839.901401587</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1300.59412118862</v>
+        <v>1300.588033077197</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1300.552190604963</v>
+        <v>1300.566274974758</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1531.683440265014</v>
+        <v>1532.272464570047</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1532.67030629584</v>
+        <v>1533.978371099799</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>15810323.51350561</v>
+        <v>12484444.86712142</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>15551257.47285627</v>
+        <v>9228795.6556722</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3988.535972291532</v>
+        <v>3895.358978891992</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4024.273982191427</v>
+        <v>3777.033280203761</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>521.1786841162426</v>
+        <v>521.1956042707116</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>521.1683611786599</v>
+        <v>521.1889012655257</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14755.23157575217</v>
+        <v>14773.29494479827</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1622.49167656769</v>
+        <v>1622.506485388632</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>47293.90717878206</v>
+        <v>43509.72547473564</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>18633671.87111808</v>
+        <v>12658819.85821687</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>605.2598305548353</v>
+        <v>600.1499712022196</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>604.5132010665054</v>
+        <v>600.209730109107</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>700.0000000000033</v>
+        <v>700.0000000011638</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>700.0000000000032</v>
+        <v>700.0000000011241</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4004317.466050596</v>
+        <v>7968691.580542637</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4433930.031738144</v>
+        <v>8012644.345856128</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1300.583422386669</v>
+        <v>1300.571910327686</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1300.537948311068</v>
+        <v>1300.561598674893</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1531.160867232371</v>
+        <v>1531.736024444511</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1532.245914617921</v>
+        <v>1533.720920512685</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>14587648.79546822</v>
+        <v>10789057.68061954</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>15043040.43388462</v>
+        <v>8364913.012878618</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3951.99953099691</v>
+        <v>3835.518272912243</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3963.167663817304</v>
+        <v>3697.713649920458</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>521.1767567053645</v>
+        <v>521.1924396118397</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>521.1628318288385</v>
+        <v>521.1889012655257</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>14730.41599863664</v>
+        <v>14754.49409403629</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1622.456134526294</v>
+        <v>1622.471715336826</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>43430.70152319819</v>
+        <v>41970.93358025358</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>17201867.94692053</v>
+        <v>10827495.77943012</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>605.2594344225569</v>
+        <v>600.1474975552513</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>604.5128067871713</v>
+        <v>600.2072480832373</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>700.0000000000001</v>
+        <v>700.0000000000414</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>700.0000000000001</v>
+        <v>700.0000000000387</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3876145.898728664</v>
+        <v>7196300.244425704</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4195618.293874997</v>
+        <v>7230380.426353672</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1300.577036976382</v>
+        <v>1300.567338766514</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1300.532991416055</v>
+        <v>1300.551575801193</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1530.947209063592</v>
+        <v>1531.537219428954</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1532.059484983975</v>
+        <v>1533.584794087612</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>13698755.78434045</v>
+        <v>9405614.376919337</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>14341732.62595853</v>
+        <v>7029389.392473423</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3941.529919368784</v>
+        <v>3798.42624925561</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3943.820757352884</v>
+        <v>3678.354879368002</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>521.1735794581286</v>
+        <v>521.1924048364086</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>521.1581316899827</v>
+        <v>521.1854643456514</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>14664.37582639784</v>
+        <v>14744.04877721688</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1622.411563949146</v>
+        <v>1622.394998551304</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>42649.71755301146</v>
+        <v>39235.23645996524</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>14919937.6221503</v>
+        <v>9990382.679734344</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>605.2593371816713</v>
+        <v>600.1468198405871</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>604.5127119396635</v>
+        <v>600.2065473465323</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>700.0000000000001</v>
+        <v>700.0000000000014</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>700.0000000000001</v>
+        <v>700.0000000000013</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3445887.611038945</v>
+        <v>6900313.70148831</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4006461.345512396</v>
+        <v>6589168.037523461</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1300.57007358696</v>
+        <v>1300.560175309821</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1300.527284403353</v>
+        <v>1300.547538059547</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1530.811107160729</v>
+        <v>1531.336277361688</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1531.901747713565</v>
+        <v>1533.402963655911</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>13023641.44532286</v>
+        <v>8581197.179188138</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>13225087.907665</v>
+        <v>6504376.81168762</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3891.726439982674</v>
+        <v>3757.85818307017</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3892.146206917642</v>
+        <v>3632.464429912352</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>521.1600819342391</v>
+        <v>521.1840733596092</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>521.1564912873794</v>
+        <v>521.1833725862433</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>14626.47695390177</v>
+        <v>14683.20788712902</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1622.35709244611</v>
+        <v>1622.384737948027</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>40315.86068027778</v>
+        <v>36882.67226912449</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>14641340.14497678</v>
+        <v>8770569.9153616</v>
       </c>
     </row>
   </sheetData>
@@ -6981,684 +5373,684 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>677.7785778917776</v>
+        <v>679.0641132972105</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>678.4328606449898</v>
+        <v>679.4236267635556</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1758.21708190777</v>
+        <v>1781.927856406118</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1756.677981050202</v>
+        <v>1826.167755952596</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>572060337.7847461</v>
+        <v>695647473.6490047</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>581444406.7998055</v>
+        <v>898308635.5451565</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1307.6823380078</v>
+        <v>1307.971978968208</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1307.976427429846</v>
+        <v>1308.103074962072</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>11580947.81876696</v>
+        <v>16183684.08213467</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>11294049.92922645</v>
+        <v>14099182.40092849</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>402026594.5871988</v>
+        <v>436890687.7480608</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>473922580.725684</v>
+        <v>630232312.2053459</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>40894.37183735755</v>
+        <v>73835.75472366223</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>27743.57329265296</v>
+        <v>44361.59952010964</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>521.4576250367663</v>
+        <v>521.4691918491475</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>521.4392642092039</v>
+        <v>521.4641889062053</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>17364.25823112287</v>
+        <v>17910.64263023161</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1623.785927346366</v>
+        <v>1623.958514377652</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>15408388.95662285</v>
+        <v>25655142.3433517</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>354475035.8462421</v>
+        <v>457077804.0159444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>664.7026715835314</v>
+        <v>634.0093521851795</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>664.2606789622603</v>
+        <v>634.4173803829191</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>721.9185730948997</v>
+        <v>711.2261280319282</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>722.3027051827681</v>
+        <v>712.3899024530268</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>47558366.26081156</v>
+        <v>8822214.397105312</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>48027861.88805091</v>
+        <v>8012428.860082735</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1301.382965148622</v>
+        <v>1300.690508714168</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1301.32100000775</v>
+        <v>1300.660463708594</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>14237.15182928871</v>
+        <v>5325.009679755997</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>10783.03388278333</v>
+        <v>2547.617065150138</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>21916743.90672131</v>
+        <v>7786905.737846788</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>20256990.49704887</v>
+        <v>6352493.247006093</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4477.537909978344</v>
+        <v>3233.900739303615</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4584.266466479928</v>
+        <v>3194.217546637041</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>521.2503783104636</v>
+        <v>521.2645019658936</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>521.252005749109</v>
+        <v>521.263758751268</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>15464.53073330787</v>
+        <v>12709.31488910969</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1623.016935274112</v>
+        <v>1622.306585995036</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>152601.086817995</v>
+        <v>79829.67581082247</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>23041589.18658214</v>
+        <v>7749515.999924855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>651.2659297160991</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>651.3167170628623</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>703.8409340059915</v>
+        <v>710.7992740409456</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>703.5654818380831</v>
+        <v>712.135225544297</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>31470292.63331561</v>
+        <v>8817669.359968323</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>31344063.36259317</v>
+        <v>8009624.504776006</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1300.810979265504</v>
+        <v>1300.679035870642</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1300.708588878004</v>
+        <v>1300.650392966332</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1652.85584916135</v>
+        <v>5311.768753839721</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1601.087280508437</v>
+        <v>2542.856661568166</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>12378805.53660573</v>
+        <v>7786320.89297993</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>13229961.94938674</v>
+        <v>6296591.791225078</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4275.778296486337</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4267.550336079585</v>
+        <v>3194.195062729968</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>521.231579733041</v>
+        <v>521.2404573775584</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>521.2320639844448</v>
+        <v>521.2337722542688</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15234.83069350889</v>
+        <v>12546.75237588287</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1622.82865975219</v>
+        <v>1622.050623410592</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>81655.73860145398</v>
+        <v>78902.13167366377</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>14165303.16424379</v>
+        <v>7747583.754852848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>636.0265529817087</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>635.9476248457124</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>701.2668886678304</v>
+        <v>710.7955497365061</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>701.2583851057194</v>
+        <v>712.1330630493478</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>24134013.604004</v>
+        <v>8817667.254823022</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>23952112.21422815</v>
+        <v>8009618.087067915</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1300.758238792471</v>
+        <v>1300.679035411254</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1300.644039620817</v>
+        <v>1300.649539598871</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1543.236464184851</v>
+        <v>5311.768240609632</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1542.229499420353</v>
+        <v>2542.856318535401</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>9715624.175827863</v>
+        <v>7786320.803692315</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>9462979.22642437</v>
+        <v>6296591.68955317</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4154.962446048311</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4108.803977404065</v>
+        <v>3194.195062726995</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>521.2209397061112</v>
+        <v>521.2348867588072</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>521.2145278168138</v>
+        <v>521.2267545661299</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>15139.23062626324</v>
+        <v>12546.75234347598</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1622.767200278507</v>
+        <v>1622.050623405937</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>57877.1779451418</v>
+        <v>78902.13167365761</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>10702109.22873457</v>
+        <v>7747583.151308545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>622.9215030713056</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>623.1144724855543</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>700.9778984459404</v>
+        <v>710.7955179506614</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>700.9586947855926</v>
+        <v>712.1330412737545</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>18637268.86178436</v>
+        <v>8817667.25475871</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>19491834.01284273</v>
+        <v>8009618.060921596</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1300.712768219134</v>
+        <v>1300.679035404898</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1300.617467621268</v>
+        <v>1300.649539596049</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1537.369869802506</v>
+        <v>5311.768240505142</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1537.836553286402</v>
+        <v>2542.856318393786</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>8006153.585124163</v>
+        <v>7786320.803684223</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>8141763.097983052</v>
+        <v>6296591.689536399</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4007.636066593141</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4069.018993780546</v>
+        <v>3194.195062726995</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>521.2055421636958</v>
+        <v>521.2348867588072</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>521.2125838355465</v>
+        <v>521.2267544953534</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>14990.3110374329</v>
+        <v>12546.75234347598</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1622.671471334237</v>
+        <v>1622.050623405937</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>46879.55547471951</v>
+        <v>78902.13167365761</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>8989975.505103009</v>
+        <v>7747583.151245552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>615.2320962491006</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>615.6535524849812</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>700.4276480824788</v>
+        <v>710.7955178408089</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>700.4060109974828</v>
+        <v>712.1330411845662</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>16062348.35497113</v>
+        <v>8817667.254758691</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>14724028.08990532</v>
+        <v>8009618.060675813</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1300.675913280846</v>
+        <v>1300.679035404871</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1300.601750388093</v>
+        <v>1300.649539596024</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1535.763477024774</v>
+        <v>5311.768240505087</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1536.410908086706</v>
+        <v>2542.856318393681</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>7077223.870404576</v>
+        <v>7786320.803684219</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>7114763.183479628</v>
+        <v>6296591.689536399</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3963.855539141986</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4022.459829152142</v>
+        <v>3194.195062726995</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>521.2025544638548</v>
+        <v>521.2348867588072</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>521.203529745436</v>
+        <v>521.2267544953534</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14879.75153877567</v>
+        <v>12546.75234347598</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1622.639274037793</v>
+        <v>1622.050623405937</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>40668.57819361152</v>
+        <v>78902.13167365761</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>7995064.346174021</v>
+        <v>7747583.151245552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>609.6018709178057</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>609.5651770514919</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>700.0989761067842</v>
+        <v>710.7955178404129</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>700.0930079172597</v>
+        <v>712.1330411842738</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>14217444.28472154</v>
+        <v>8817667.254758691</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>13237696.58179513</v>
+        <v>8009618.060675805</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1300.654911450272</v>
+        <v>1300.679035404871</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1300.591313192966</v>
+        <v>1300.649539596024</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1534.317970184102</v>
+        <v>5311.768240505087</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1535.533896684951</v>
+        <v>2542.856318393681</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>6184791.169480554</v>
+        <v>7786320.803684219</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>6202946.964977698</v>
+        <v>6296591.689536399</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3912.452404291083</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3973.239720988572</v>
+        <v>3194.195062726995</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>521.1961211197699</v>
+        <v>521.2348867588072</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>521.1979329902703</v>
+        <v>521.2267544953534</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>14828.1065109359</v>
+        <v>12546.75234347598</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1622.613429009865</v>
+        <v>1622.050623405937</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>37433.04231186336</v>
+        <v>78902.13167365761</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>7043279.385053107</v>
+        <v>7747583.151245552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>606.0768909281126</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>606.1081406822443</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>700.0225896403057</v>
+        <v>710.7955178404119</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>700.0202378137429</v>
+        <v>712.133041184272</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>12534222.16234598</v>
+        <v>8817667.254758691</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>11505613.26256781</v>
+        <v>8009618.060675805</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1300.638617896258</v>
+        <v>1300.679035404871</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1300.574044013503</v>
+        <v>1300.649539596024</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1533.72875575869</v>
+        <v>5311.768240505087</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1534.806668745337</v>
+        <v>2542.856318393681</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>5677170.709656824</v>
+        <v>7786320.803684219</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>5492341.632338195</v>
+        <v>6296591.689536399</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3853.913477319389</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3942.931491787959</v>
+        <v>3194.195062726995</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>521.1957082254197</v>
+        <v>521.2348867588072</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>521.1917096664188</v>
+        <v>521.2267544953534</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14813.50855406036</v>
+        <v>12546.75234347598</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1622.582027844251</v>
+        <v>1622.050623405937</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>33818.54066362458</v>
+        <v>78902.13167365761</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>5883830.228760502</v>
+        <v>7747583.151245552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>603.9885728294242</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>603.9246532977156</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>700.0048926669712</v>
+        <v>710.7955178404119</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>700.0044260498929</v>
+        <v>712.133041184272</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>10842113.78063503</v>
+        <v>8817667.254758691</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>10441315.68834839</v>
+        <v>8009618.060675805</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1300.628769466156</v>
+        <v>1300.679035404871</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1300.565439960271</v>
+        <v>1300.649539596024</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1533.290953882601</v>
+        <v>5311.768240505087</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1534.294934184948</v>
+        <v>2542.856318393681</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>4670988.745525229</v>
+        <v>7786320.803684219</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4683193.742600054</v>
+        <v>6296591.689536399</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3832.436662915528</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3906.668926240589</v>
+        <v>3194.195062726995</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>521.1942157926902</v>
+        <v>521.2348867588072</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>521.1883735237088</v>
+        <v>521.2267544953534</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>14783.10330240798</v>
+        <v>12546.75234347598</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1622.52882683961</v>
+        <v>1622.050623405937</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>31098.32371749814</v>
+        <v>78902.13167365761</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>5519167.340179692</v>
+        <v>7747583.151245552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>602.6786174406567</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>602.55759830473</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>700.0011823607724</v>
+        <v>710.7955178404119</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>700.000888950553</v>
+        <v>712.133041184272</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>9310151.651308268</v>
+        <v>8817667.254758691</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8921172.706743825</v>
+        <v>8009618.060675805</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1300.608514057792</v>
+        <v>1300.679035404871</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1300.560550290546</v>
+        <v>1300.649539596024</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1533.095635457099</v>
+        <v>5311.768240505087</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1533.925796392713</v>
+        <v>2542.856318393681</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>4337532.81467182</v>
+        <v>7786320.803684219</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>4368141.816289552</v>
+        <v>6296591.689536399</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3826.715955606044</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3867.410207011592</v>
+        <v>3194.195062726995</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>521.1918399632202</v>
+        <v>521.2348867588072</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>521.1848205605504</v>
+        <v>521.2267544953534</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>14759.00241607163</v>
+        <v>12546.75234347598</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1622.516541272903</v>
+        <v>1622.050623405937</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>29709.1935592577</v>
+        <v>78902.13167365761</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>5168653.303724317</v>
+        <v>7747583.151245552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>601.9080052569547</v>
+        <v>634.0032359261107</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>601.7334447319769</v>
+        <v>634.4116330613784</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>700.0004586788128</v>
+        <v>710.7955178404119</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>700.000198423372</v>
+        <v>712.133041184272</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>8076623.506110989</v>
+        <v>8817667.254758691</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>8241262.001373549</v>
+        <v>8009618.060675805</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1300.60351883535</v>
+        <v>1300.679035404871</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1300.555358519063</v>
+        <v>1300.649539596024</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1532.657722292322</v>
+        <v>5311.768240505087</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1533.773605105786</v>
+        <v>2542.856318393681</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>3938898.497837146</v>
+        <v>7786320.803684219</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3820438.173869556</v>
+        <v>6296591.689536399</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3789.258272251024</v>
+        <v>3233.900573655074</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3826.810871313134</v>
+        <v>3194.195062726995</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>521.1901285356781</v>
+        <v>521.2348867588072</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>521.1814286146512</v>
+        <v>521.2267544953534</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>14728.13284033612</v>
+        <v>12546.75234347598</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1622.51339627971</v>
+        <v>1622.050623405937</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>28605.55835268156</v>
+        <v>78902.13167365761</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>4504403.827991808</v>
+        <v>7747583.151245552</v>
       </c>
     </row>
   </sheetData>
@@ -7784,684 +6176,684 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>677.4596385182161</v>
+        <v>679.2867945994632</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>677.555178006599</v>
+        <v>679.3508906133881</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1749.674948163781</v>
+        <v>1776.694831648525</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1749.820106437262</v>
+        <v>1791.254907968517</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>530842872.5440058</v>
+        <v>775876075.2573426</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>516111633.5240648</v>
+        <v>711523791.890016</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1307.665044920473</v>
+        <v>1308.005505087789</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1307.861973571587</v>
+        <v>1308.038263766043</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>12669867.40401356</v>
+        <v>15996356.18521968</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>11037123.42396833</v>
+        <v>13830851.4845639</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>301710308.9982017</v>
+        <v>475342185.5664998</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>419544516.9838885</v>
+        <v>533912098.6372574</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>49002.79032467504</v>
+        <v>92104.71593178228</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>31386.77845317521</v>
+        <v>64189.07176099951</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>521.427730462953</v>
+        <v>521.4703996011934</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>521.4370246942636</v>
+        <v>521.4806689312242</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>17400.7455783249</v>
+        <v>17846.32027318814</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1623.831297077315</v>
+        <v>1623.834090741743</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11171708.41434471</v>
+        <v>32127543.98612008</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>375164550.2258365</v>
+        <v>573297536.1193146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>630.6880906564467</v>
+        <v>629.144407261375</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>630.6677438148694</v>
+        <v>629.2989958764191</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>701.5236529279858</v>
+        <v>702.5659587300116</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>701.5583636174923</v>
+        <v>702.5010701385276</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5614927.103168775</v>
+        <v>23585854.36644465</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5393722.551977515</v>
+        <v>20699911.01410817</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1300.571646326915</v>
+        <v>1300.755046505361</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1300.483053867466</v>
+        <v>1300.691730232001</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1552.319718954858</v>
+        <v>1562.968246643119</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1545.15780083612</v>
+        <v>1550.531536885494</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>3016161.425650092</v>
+        <v>23438665.25092443</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3763139.250957021</v>
+        <v>22235068.22047599</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3177.548073389401</v>
+        <v>4445.323514916422</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3157.329078067203</v>
+        <v>4557.639108885076</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>521.263016357378</v>
+        <v>521.2587983568313</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>521.2625629973978</v>
+        <v>521.266694050192</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8516.978334615218</v>
+        <v>15292.920264531</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1621.764870676892</v>
+        <v>1622.911579450506</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>58278.33825707689</v>
+        <v>121381.7850502808</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>4579139.094576008</v>
+        <v>26248650.62636118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>626.1251248262239</v>
+        <v>609.4654455857783</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>626.3950214154717</v>
+        <v>609.7380525032594</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>700.3572583889921</v>
+        <v>700.6198180006041</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>700.4031679816078</v>
+        <v>700.6202002357397</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2965718.156511846</v>
+        <v>15754204.36903187</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2866806.16838581</v>
+        <v>15030068.48579835</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1300.488114471591</v>
+        <v>1300.711000062219</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1300.394740884226</v>
+        <v>1300.617043032436</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1526.586501469619</v>
+        <v>1536.597174651283</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1522.510010642281</v>
+        <v>1537.598184748173</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1795690.067623728</v>
+        <v>15775583.98422577</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2139027.392956752</v>
+        <v>12859996.36002612</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3164.502456063018</v>
+        <v>4290.12854989729</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3144.940146318536</v>
+        <v>4294.17364432776</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>521.2120411620771</v>
+        <v>521.2424463248539</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>521.2330338483163</v>
+        <v>521.2407963549064</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7802.768902551732</v>
+        <v>15101.71465591396</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1621.18905613784</v>
+        <v>1622.788386625059</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>44536.44008170602</v>
+        <v>73183.76025646692</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2850659.763240505</v>
+        <v>18605719.78239464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>625.3797274514241</v>
+        <v>603.5150684351321</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>625.7066212584652</v>
+        <v>603.7644357446536</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>700.0355196419342</v>
+        <v>700.0255414406242</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>700.0441676980187</v>
+        <v>700.0297213136827</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2091357.82683104</v>
+        <v>12964268.9109924</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2036207.401179002</v>
+        <v>12933238.34636759</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1300.471588277191</v>
+        <v>1300.681561292455</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1300.378828912708</v>
+        <v>1300.592990618598</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1522.180998462215</v>
+        <v>1534.386133612225</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1518.290361071292</v>
+        <v>1535.483133789865</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1360321.723415656</v>
+        <v>12285542.5171212</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1487441.976719243</v>
+        <v>10841169.50544316</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3163.950012340339</v>
+        <v>4160.516697028915</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3144.271971336927</v>
+        <v>4191.258479666581</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>521.0941627230545</v>
+        <v>521.2282980586548</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>521.1245490969952</v>
+        <v>521.2239267725263</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7766.744653082929</v>
+        <v>15028.53433941858</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1621.132962122802</v>
+        <v>1622.712543113042</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>38349.88511517305</v>
+        <v>54483.05600056182</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2278116.94741608</v>
+        <v>13570928.94475559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>625.2289679153977</v>
+        <v>601.6876444022947</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>625.5526486288217</v>
+        <v>601.8191156266221</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>700.0086398568524</v>
+        <v>700.0008262257694</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>700.0120072772012</v>
+        <v>700.0014078935232</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1636763.006740083</v>
+        <v>11757218.27101796</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1585836.909758234</v>
+        <v>10963968.83588283</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1300.469275368879</v>
+        <v>1300.652419862805</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1300.375949354273</v>
+        <v>1300.566407187642</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1520.801896240378</v>
+        <v>1533.254853683301</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1516.917357276405</v>
+        <v>1534.464565568904</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1132515.455636821</v>
+        <v>10379939.39249041</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1156203.445508739</v>
+        <v>9167182.627466479</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3163.851126181406</v>
+        <v>4079.295000318464</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3144.130336541593</v>
+        <v>4107.475071752773</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>520.9088779880786</v>
+        <v>521.2142276043394</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>520.9483414585453</v>
+        <v>521.215827349735</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7754.168230888527</v>
+        <v>14940.90824047266</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1621.113228089125</v>
+        <v>1622.615706977362</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>34710.11704400358</v>
+        <v>47567.47627182084</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1931216.489553291</v>
+        <v>11444656.61174762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>625.2010182933885</v>
+        <v>601.1273226455746</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>625.525389281118</v>
+        <v>601.2489585113508</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>700.0049652001201</v>
+        <v>700.0000303857124</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>700.0072949151102</v>
+        <v>700.000367360158</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1372786.670691106</v>
+        <v>10270190.12278604</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1313663.97218516</v>
+        <v>10321311.28208443</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1300.468931064836</v>
+        <v>1300.6379164693</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1300.375564522319</v>
+        <v>1300.560259255575</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1520.038950286774</v>
+        <v>1532.660911608319</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1516.067145810151</v>
+        <v>1534.293744316258</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>987760.5667464926</v>
+        <v>9039718.495920204</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>953152.6570490305</v>
+        <v>7880500.513672926</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3163.817636157494</v>
+        <v>4031.098150957818</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3144.096897975267</v>
+        <v>4033.012490887534</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>520.6812403881753</v>
+        <v>521.1981418390479</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>520.7323637475904</v>
+        <v>521.2101599983195</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7747.887742498238</v>
+        <v>14832.40684252869</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1621.104370417454</v>
+        <v>1622.600929646729</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>31929.56208118118</v>
+        <v>41359.28768473992</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1702907.437703547</v>
+        <v>9618753.624472152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>625.1949444015414</v>
+        <v>600.9587778099035</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>625.5188201807412</v>
+        <v>601.0749211655187</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>700.0040921680771</v>
+        <v>700.0000012130507</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>700.0060571561585</v>
+        <v>700.0003301142516</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1192918.085309968</v>
+        <v>9181743.793000145</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1128508.317869603</v>
+        <v>9918034.931335526</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1300.468874333882</v>
+        <v>1300.606009839586</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1300.375529074099</v>
+        <v>1300.55298935056</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1519.525136293876</v>
+        <v>1532.232095188764</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1515.499777106714</v>
+        <v>1533.835990734512</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>886629.9469013935</v>
+        <v>8064938.860862219</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>802746.2203001839</v>
+        <v>7265322.492385502</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3163.801059552313</v>
+        <v>3976.803517069876</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3144.079629321366</v>
+        <v>3940.27636837964</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>520.5547658092995</v>
+        <v>521.1901761399715</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>520.5833002596512</v>
+        <v>521.2055069359432</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7744.757366622828</v>
+        <v>14769.51037275952</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1621.099056179866</v>
+        <v>1622.596224535084</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>29983.56597028556</v>
+        <v>38522.1246233599</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1532777.83638866</v>
+        <v>8764098.5816225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>625.1932559002943</v>
+        <v>600.9075302174001</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>625.5170626384278</v>
+        <v>601.0186104162893</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>700.0038964378126</v>
+        <v>700.0000000616782</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>700.0057504721732</v>
+        <v>700.0003288696796</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1055353.481457922</v>
+        <v>8644772.215304572</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>989859.6563877271</v>
+        <v>9126701.680181436</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1300.46886465609</v>
+        <v>1300.601771310987</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1300.375529074099</v>
+        <v>1300.53253570634</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1519.175511303874</v>
+        <v>1531.44265677094</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1515.051200629562</v>
+        <v>1533.580592433525</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>815238.3872499963</v>
+        <v>7106540.635624287</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>707908.2491721513</v>
+        <v>6678088.978476266</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3163.789699074933</v>
+        <v>3960.618712590173</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3144.065248307805</v>
+        <v>3873.21173636273</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>520.4678078627635</v>
+        <v>521.1885686119997</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>520.4758233395521</v>
+        <v>521.1975685951428</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>7742.68559826028</v>
+        <v>14700.70444728018</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1621.094692192645</v>
+        <v>1622.561238603978</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>27791.96224672988</v>
+        <v>34504.99936070502</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1403620.222318219</v>
+        <v>7607071.913096277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>625.1928075465751</v>
+        <v>600.8920677660584</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>625.5165849439576</v>
+        <v>601.0021026673677</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>700.0035846151023</v>
+        <v>700.0000000028375</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>700.0056343022839</v>
+        <v>700.0003288241325</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>949873.8681836214</v>
+        <v>8360290.412610195</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>888672.0463540039</v>
+        <v>8276803.011887844</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1300.46886465609</v>
+        <v>1300.58328037447</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1300.375529074099</v>
+        <v>1300.52783158797</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1518.898336739362</v>
+        <v>1531.296913627416</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1514.73359009962</v>
+        <v>1533.500235994393</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>753978.7258789472</v>
+        <v>6466944.855044482</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>637414.0499034309</v>
+        <v>6145817.677999425</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3163.784921630192</v>
+        <v>3907.459034385849</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3144.054435187102</v>
+        <v>3857.575978133143</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>520.3918603357836</v>
+        <v>521.1795905586881</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>520.3603910706144</v>
+        <v>521.1893237936893</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7741.663967106314</v>
+        <v>14652.16082148675</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1621.091388051444</v>
+        <v>1622.524559994458</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>26170.06810689617</v>
+        <v>30049.53709253348</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1304100.269040672</v>
+        <v>7087248.077562544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>625.19270076993</v>
+        <v>600.8874124632562</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>625.5164805184518</v>
+        <v>600.9971073977845</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>700.0035211826067</v>
+        <v>700.0000000001062</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>700.0056016191301</v>
+        <v>700.0003288224691</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>869151.1200238242</v>
+        <v>7460352.219354487</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>806386.4619185349</v>
+        <v>7889868.990172552</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1300.46886465609</v>
+        <v>1300.564778721108</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1300.375529074099</v>
+        <v>1300.527227298701</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1518.67580954759</v>
+        <v>1531.037997083457</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1514.475838964014</v>
+        <v>1533.325936738394</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>705306.1213885505</v>
+        <v>5931541.373047471</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>583063.7304758071</v>
+        <v>5495991.962003695</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3163.782991823928</v>
+        <v>3842.063174201032</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3144.050458192475</v>
+        <v>3848.24238831613</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>520.3227447843416</v>
+        <v>521.1780478171836</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>520.2683424560265</v>
+        <v>521.1877534415005</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7740.782821442034</v>
+        <v>14636.26130160349</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1621.089063418887</v>
+        <v>1622.487498916418</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>24579.58663044592</v>
+        <v>28069.20282892178</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1211818.518281778</v>
+        <v>6341162.970128145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>625.192668911432</v>
+        <v>600.8859338732219</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>625.5164521356404</v>
+        <v>600.9954316757592</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>700.0032750400912</v>
+        <v>700.0000000000031</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>700.0054174036242</v>
+        <v>700.0003288224048</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>798897.9895603295</v>
+        <v>6898874.833864284</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>740660.2902726746</v>
+        <v>7237988.14605525</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1300.46886465609</v>
+        <v>1300.556198925632</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1300.375529074099</v>
+        <v>1300.519545616269</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1518.491451860095</v>
+        <v>1530.901149391638</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1514.261862825431</v>
+        <v>1533.261888360898</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>665169.3759890039</v>
+        <v>5440380.745297468</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>537870.2232631942</v>
+        <v>5108930.455159429</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3163.782023037564</v>
+        <v>3803.082795991465</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3144.048674983846</v>
+        <v>3813.875369032352</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>520.2678243298208</v>
+        <v>521.1759759706035</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>520.1927154907322</v>
+        <v>521.1856657642337</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7740.115566422442</v>
+        <v>14627.38447496849</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1621.087241356189</v>
+        <v>1622.458127852408</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>22742.18946530794</v>
+        <v>26160.53545654594</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1136345.39505063</v>
+        <v>5823435.454615184</v>
       </c>
     </row>
   </sheetData>
@@ -8587,684 +6979,684 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>678.5311230143338</v>
+        <v>679.0581252022158</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>678.1065666116576</v>
+        <v>679.0008896333964</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1716.326147680837</v>
+        <v>1786.244649134357</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1730.486026361807</v>
+        <v>1817.584948661414</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>568363585.6826051</v>
+        <v>707895143.5441753</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>581987041.9017053</v>
+        <v>712047408.9571846</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1307.741442255343</v>
+        <v>1307.841607183284</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1307.785799601787</v>
+        <v>1308.008232518293</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>11415713.2986063</v>
+        <v>16614578.51071837</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>11685936.81348105</v>
+        <v>14852124.74570817</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>324056864.294191</v>
+        <v>416116108.2222306</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>382914017.5076374</v>
+        <v>608469098.0284061</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>40995.46465989472</v>
+        <v>95162.12435555313</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>35176.80330678113</v>
+        <v>44110.03884125081</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>521.4472070132282</v>
+        <v>521.4740985415394</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>521.4354534133862</v>
+        <v>521.4635091643697</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>17476.5531608915</v>
+        <v>17739.02816814996</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>1623.810198542287</v>
+        <v>1623.958957011831</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>14709325.52527132</v>
+        <v>20738750.48219289</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>378795081.0309462</v>
+        <v>491013077.8257214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>656.6816180848521</v>
+        <v>622.9428868535009</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>657.4374416944198</v>
+        <v>623.2343934677824</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>702.5468322502348</v>
+        <v>701.9850062339889</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>702.6219345267805</v>
+        <v>701.9916708987624</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>67503083.88539083</v>
+        <v>15143980.03103791</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>74182739.66318801</v>
+        <v>16238993.29330688</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1300.802825205708</v>
+        <v>1300.689848945137</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1300.694488329764</v>
+        <v>1300.630751116674</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1573.69959233215</v>
+        <v>1546.003533310472</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1552.48564837385</v>
+        <v>1543.289009737407</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>38275927.41458963</v>
+        <v>8410291.898330074</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>37653218.0030065</v>
+        <v>8393938.131827056</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4784.059549269358</v>
+        <v>4148.234588553855</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4823.132192851929</v>
+        <v>4298.757832170434</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>521.2574742154731</v>
+        <v>521.2709649934884</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>521.2451993440334</v>
+        <v>521.2583809756935</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>15555.47740901401</v>
+        <v>15598.04343428008</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>1622.964005740985</v>
+        <v>1622.953816848231</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>175776.9208057955</v>
+        <v>70020.81632908266</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>41403575.47877188</v>
+        <v>10685245.88012197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>624.2639989308246</v>
+        <v>609.2990254734854</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>625.023040882276</v>
+        <v>609.0870228226322</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>700.6735059328114</v>
+        <v>700.5461557191653</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>700.6749576812128</v>
+        <v>700.5768878252474</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>51743133.91252964</v>
+        <v>7622200.925018832</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>56863468.08881323</v>
+        <v>7661749.42494888</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1300.703820326703</v>
+        <v>1300.631281276679</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1300.65363194228</v>
+        <v>1300.583704351818</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1537.447383434789</v>
+        <v>1536.27260842938</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1537.859548594654</v>
+        <v>1536.047476042222</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>30002853.79225635</v>
+        <v>4165234.554837146</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>27034865.42694719</v>
+        <v>4063949.601833531</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4503.489640704331</v>
+        <v>3948.498311121334</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4459.97504711154</v>
+        <v>3999.274568981275</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>521.2210379048306</v>
+        <v>521.2507707713895</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>521.2262132423452</v>
+        <v>521.2392803746895</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15285.6713035599</v>
+        <v>15372.5631983457</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>1622.744393959352</v>
+        <v>1622.6807654804</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>97594.74084653701</v>
+        <v>39410.87208147073</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>33038462.93110948</v>
+        <v>4271798.335634107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>607.451938222023</v>
+        <v>605.8906947151359</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>608.2081329775691</v>
+        <v>605.6105678853934</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>700.0505864058689</v>
+        <v>700.0432109614649</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>700.0455511454893</v>
+        <v>700.0702051730302</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45739964.53309054</v>
+        <v>4323897.784815367</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>48563260.36217609</v>
+        <v>4730531.943767691</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1300.677273353884</v>
+        <v>1300.5833530602</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1300.6171133132</v>
+        <v>1300.568599332905</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1534.875004050027</v>
+        <v>1533.980343104541</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1536.192071265993</v>
+        <v>1534.077881955848</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>23413505.97581262</v>
+        <v>2366690.409321081</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>23160947.88844554</v>
+        <v>2311048.584634585</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4365.23917441317</v>
+        <v>3837.452495258498</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4317.614997084969</v>
+        <v>3861.622971510823</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>521.2105534766366</v>
+        <v>521.235276955599</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>521.2118998766024</v>
+        <v>521.2235825291723</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>15101.56673194044</v>
+        <v>15150.39056866963</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>1622.685233834748</v>
+        <v>1622.602050957129</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>74956.04606487883</v>
+        <v>29959.88918361924</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>29327636.28875609</v>
+        <v>2691244.358026874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>602.6044167555615</v>
+        <v>605.0166956817873</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>602.8667487540248</v>
+        <v>604.7393278062469</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>700.0020377564339</v>
+        <v>700.0101505332685</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>700.0021060451683</v>
+        <v>700.0368187744344</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>41515309.97202238</v>
+        <v>2409100.716122908</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>42826486.22798417</v>
+        <v>2707712.639075136</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1300.65276015716</v>
+        <v>1300.563293492276</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>1300.59400994197</v>
+        <v>1300.544394133427</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1533.800632895604</v>
+        <v>1532.407640086946</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1535.430448952221</v>
+        <v>1533.728739851711</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>20784341.65524225</v>
+        <v>1505733.229383545</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>21669280.27684918</v>
+        <v>1422471.431020485</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4260.123847147977</v>
+        <v>3781.998283174661</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4192.179201886409</v>
+        <v>3747.740888210166</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>521.1997586474681</v>
+        <v>521.2237426220336</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>521.2019052588411</v>
+        <v>521.2166955162038</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>15009.69682980274</v>
+        <v>15076.44029211804</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1622.611145331676</v>
+        <v>1622.50133907031</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>61463.70227032919</v>
+        <v>22128.73527364822</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>24628997.6504162</v>
+        <v>1795017.661478979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>601.114898172198</v>
+        <v>604.7848395864871</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>601.2378283018114</v>
+        <v>604.4984036825065</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>700.0000913555839</v>
+        <v>700.0070908056693</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>700.0000839007672</v>
+        <v>700.0338797727986</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>39930316.41215841</v>
+        <v>1606860.830812063</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>38820578.33011565</v>
+        <v>1686644.241761703</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1300.623828557429</v>
+        <v>1300.550483520992</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>1300.576717812247</v>
+        <v>1300.52695293394</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1533.148628020991</v>
+        <v>1531.937594385345</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1534.89740865061</v>
+        <v>1532.918641681787</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>18357609.33840183</v>
+        <v>1041153.938671802</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>19772037.85289236</v>
+        <v>903106.2396973993</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4164.360449483797</v>
+        <v>3713.283143032448</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4105.53723799217</v>
+        <v>3706.699009997765</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>521.1954321515517</v>
+        <v>521.2179196089888</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>521.198752064185</v>
+        <v>521.2081460670895</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14895.34890051666</v>
+        <v>15032.95867744416</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1622.510005880921</v>
+        <v>1622.395802255719</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>55288.77765582505</v>
+        <v>18741.40432018875</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>20894820.34455835</v>
+        <v>1304136.109607535</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>600.6841705089336</v>
+        <v>604.7282960941179</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>600.7733824956696</v>
+        <v>604.4399266730618</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>700.0000043572592</v>
+        <v>700.0066919288661</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>700.0000034771676</v>
+        <v>700.0334508418862</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>37262344.83819363</v>
+        <v>1064753.306665872</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>37458104.44039116</v>
+        <v>1148036.146860283</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1300.601958425065</v>
+        <v>1300.533905515983</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1300.568941738564</v>
+        <v>1300.517456156033</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1532.591331090892</v>
+        <v>1531.411807062308</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1534.63137475897</v>
+        <v>1532.392602762685</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>15973933.69290148</v>
+        <v>707952.0746427852</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>18489925.68157546</v>
+        <v>632860.8472913762</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4121.079973430542</v>
+        <v>3661.011941455286</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4016.731713090995</v>
+        <v>3637.26373468309</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>521.187263800815</v>
+        <v>521.2069093802465</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>521.1898152541683</v>
+        <v>521.199586336639</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>14842.83933170378</v>
+        <v>14898.78064770515</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1622.495641329825</v>
+        <v>1622.358977362575</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>51594.92358122223</v>
+        <v>15297.55868789446</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>19740263.49473281</v>
+        <v>961926.7193729504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>600.5489640334417</v>
+        <v>604.7132980078388</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>600.6289025580521</v>
+        <v>604.4252314267628</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>700.000000187101</v>
+        <v>700.0066191395131</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>700.0000001360244</v>
+        <v>700.033386320609</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>36299686.21393082</v>
+        <v>820486.8370549505</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>34123742.36798846</v>
+        <v>732346.7180516175</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1300.590205426903</v>
+        <v>1300.528000828958</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1300.563213907761</v>
+        <v>1300.496125357921</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1532.016658708131</v>
+        <v>1530.758211862525</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1534.067866317085</v>
+        <v>1531.92604369488</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>14785586.80501469</v>
+        <v>540368.394754246</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>15843556.06694077</v>
+        <v>480836.7606981837</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4028.345270973117</v>
+        <v>3607.617414821615</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3991.599230394626</v>
+        <v>3577.548272710287</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>521.1840715615671</v>
+        <v>521.2041051080873</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>521.1867634654033</v>
+        <v>521.1925150290888</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>14808.03583914769</v>
+        <v>14784.91341624395</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1622.470256170704</v>
+        <v>1622.323800854993</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>47397.37983078382</v>
+        <v>13260.82920989491</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>18179252.47211341</v>
+        <v>700132.2747539596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>600.5066346472656</v>
+        <v>604.7092506689569</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>600.5839488669434</v>
+        <v>604.4215884257717</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>700.0000000078902</v>
+        <v>700.0066020392984</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>700.0000000056876</v>
+        <v>700.0333677746137</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>33486489.15676795</v>
+        <v>563673.8692600157</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>32726307.04273095</v>
+        <v>563950.0936761084</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1300.58311470915</v>
+        <v>1300.516056815361</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1300.553910925592</v>
+        <v>1300.495240832578</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1531.867453825935</v>
+        <v>1530.218003993122</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1533.663494070936</v>
+        <v>1531.68729084775</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>14582263.21919548</v>
+        <v>415739.0552311225</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>14566959.97023031</v>
+        <v>366102.9963787145</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3990.630611309395</v>
+        <v>3564.496087435865</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3930.78314641149</v>
+        <v>3533.439904749028</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>521.1829838431837</v>
+        <v>521.1987216239369</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>521.1815172894889</v>
+        <v>521.1878508074836</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>14675.30447683737</v>
+        <v>14761.28171625318</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1622.426550492475</v>
+        <v>1622.281663596565</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>44481.09180053575</v>
+        <v>11517.2836710452</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>16798360.57610298</v>
+        <v>556928.253364091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>600.4913803215479</v>
+        <v>604.708188604969</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>600.5689006256738</v>
+        <v>604.4206292148966</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>700.0000000003415</v>
+        <v>700.0065984194225</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>700.0000000002196</v>
+        <v>700.033362926948</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>31800299.38118022</v>
+        <v>460994.2977760223</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>31670104.52986389</v>
+        <v>447508.6961436033</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1300.570889778654</v>
+        <v>1300.5089873535</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1300.53981569053</v>
+        <v>1300.481894924155</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1531.331450793446</v>
+        <v>1529.941859315277</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1533.551801374804</v>
+        <v>1531.308594560411</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>14022062.82059386</v>
+        <v>338683.2063470358</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>13675711.8389962</v>
+        <v>271989.6224500886</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3962.024499372796</v>
+        <v>3532.184203766795</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3868.863402968431</v>
+        <v>3475.202496422183</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>521.1809787241891</v>
+        <v>521.1976093613769</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>521.17949764743</v>
+        <v>521.1864700133398</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>14642.8244788374</v>
+        <v>14678.03068245496</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1622.40574386945</v>
+        <v>1622.268169777529</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>40919.82297127569</v>
+        <v>9122.956906084328</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>15859603.74584692</v>
+        <v>472429.9762495708</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>600.4859654760187</v>
+        <v>604.707889744789</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>600.5635927309947</v>
+        <v>604.4203595910363</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>700.0000000000133</v>
+        <v>700.0065966085022</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>700.0000000000103</v>
+        <v>700.0333618055987</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>30059846.46429037</v>
+        <v>355640.6787968525</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>29843614.70351579</v>
+        <v>350955.1066676058</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1300.554188485883</v>
+        <v>1300.505139612543</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1300.535973854431</v>
+        <v>1300.473704220498</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1531.118699736195</v>
+        <v>1529.554869198652</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1533.300451923151</v>
+        <v>1531.156448459164</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>12910243.64403949</v>
+        <v>282679.7719194356</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>13438758.02798672</v>
+        <v>200431.4305405036</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3946.547734349203</v>
+        <v>3508.803411699865</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3784.898537121012</v>
+        <v>3423.531573009949</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>521.1747177981899</v>
+        <v>521.1963955650414</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>521.1769708106173</v>
+        <v>521.1835545429806</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>14619.62483445422</v>
+        <v>14620.82541973506</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1622.366043959749</v>
+        <v>1622.262198463452</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>36711.37816253083</v>
+        <v>7537.431480759873</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>15290680.29640478</v>
+        <v>384223.7620426391</v>
       </c>
     </row>
   </sheetData>
